--- a/Resources/Injured Persons by Transportation Mode.xlsx
+++ b/Resources/Injured Persons by Transportation Mode.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\NTS\2018\Q1\Federal Review\To Web Team\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fc1888e1acd26e6/Documents/GIT/Project1/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{365D697B-91D1-4929-B7AA-F1E7DD1D6B6B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="90" windowWidth="13380" windowHeight="12705" tabRatio="784"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11950" tabRatio="784" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2-2" sheetId="8" r:id="rId1"/>
@@ -1203,16 +1204,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="###0.00_)"/>
-    <numFmt numFmtId="168" formatCode="\(\R\)\ #,##0"/>
-    <numFmt numFmtId="169" formatCode="#,##0_)"/>
-    <numFmt numFmtId="170" formatCode="0.0_W"/>
-    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0\ ;\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="\(\R\)\ #,##0"/>
+    <numFmt numFmtId="166" formatCode="#,##0_)"/>
+    <numFmt numFmtId="167" formatCode="0.0_W"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0\ ;\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1362,12 +1363,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Helv"/>
     </font>
@@ -1601,7 +1596,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1609,29 +1604,29 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="7" applyAlignment="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="7">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="7">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="7">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="7">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="7">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7">
@@ -1647,7 +1642,7 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0">
@@ -1659,7 +1654,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="7">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="7" applyFill="0">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="7" applyFill="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="7">
@@ -1674,7 +1669,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1787,164 +1782,164 @@
     <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="5" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="5" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="75">
-    <cellStyle name="Column heading" xfId="41"/>
+    <cellStyle name="Column heading" xfId="41" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Comma" xfId="31" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="35"/>
-    <cellStyle name="Comma 2 2" xfId="36"/>
-    <cellStyle name="Comma 3" xfId="39"/>
-    <cellStyle name="Comma 4" xfId="42"/>
-    <cellStyle name="Comma0" xfId="43"/>
-    <cellStyle name="Corner heading" xfId="44"/>
-    <cellStyle name="Currency0" xfId="45"/>
-    <cellStyle name="Data" xfId="1"/>
-    <cellStyle name="Data 2" xfId="46"/>
-    <cellStyle name="Data no deci" xfId="47"/>
-    <cellStyle name="Data Superscript" xfId="2"/>
-    <cellStyle name="Data Superscript 2" xfId="48"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="3"/>
-    <cellStyle name="Data-one deci" xfId="49"/>
-    <cellStyle name="Date" xfId="50"/>
-    <cellStyle name="Fixed" xfId="51"/>
-    <cellStyle name="Heading 1 2" xfId="53"/>
-    <cellStyle name="Heading 1 3" xfId="52"/>
-    <cellStyle name="Heading 2 2" xfId="55"/>
-    <cellStyle name="Heading 2 3" xfId="54"/>
-    <cellStyle name="Hed Side" xfId="4"/>
-    <cellStyle name="Hed Side 2" xfId="29"/>
-    <cellStyle name="Hed Side 3" xfId="56"/>
-    <cellStyle name="Hed Side bold" xfId="5"/>
-    <cellStyle name="Hed Side Indent" xfId="57"/>
-    <cellStyle name="Hed Side Regular" xfId="6"/>
-    <cellStyle name="Hed Side Regular 2" xfId="58"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="7"/>
-    <cellStyle name="Hed Top" xfId="8"/>
-    <cellStyle name="Hed Top - SECTION" xfId="59"/>
-    <cellStyle name="Hed Top_3-new4" xfId="60"/>
+    <cellStyle name="Comma 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Comma 2 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Comma 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma 4" xfId="42" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Comma0" xfId="43" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Corner heading" xfId="44" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Currency0" xfId="45" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Data" xfId="1" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Data 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Data no deci" xfId="47" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Data Superscript" xfId="2" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Data Superscript 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Data-one deci" xfId="49" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Date" xfId="50" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Fixed" xfId="51" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Heading 1 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Heading 1 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Heading 2 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Heading 2 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Hed Side" xfId="4" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Hed Side 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Hed Side 3" xfId="56" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Hed Side bold" xfId="5" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Hed Side Indent" xfId="57" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Hed Side Regular" xfId="6" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Hed Side Regular 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="7" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Hed Top" xfId="8" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Hed Top - SECTION" xfId="59" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Hed Top_3-new4" xfId="60" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="9"/>
-    <cellStyle name="Normal 2 2" xfId="33"/>
-    <cellStyle name="Normal 2 2 2" xfId="73"/>
-    <cellStyle name="Normal 2 2 3" xfId="61"/>
-    <cellStyle name="Normal 3" xfId="10"/>
-    <cellStyle name="Normal 3 2" xfId="40"/>
-    <cellStyle name="Normal 4" xfId="11"/>
-    <cellStyle name="Normal 5" xfId="30"/>
-    <cellStyle name="Normal 6" xfId="32"/>
-    <cellStyle name="Normal 7" xfId="34"/>
-    <cellStyle name="Normal 8" xfId="38"/>
-    <cellStyle name="Normal 9" xfId="74"/>
-    <cellStyle name="Percent 2" xfId="37"/>
-    <cellStyle name="Reference" xfId="62"/>
-    <cellStyle name="Row heading" xfId="63"/>
-    <cellStyle name="Source Hed" xfId="12"/>
-    <cellStyle name="Source Letter" xfId="64"/>
-    <cellStyle name="Source Superscript" xfId="13"/>
-    <cellStyle name="Source Text" xfId="14"/>
-    <cellStyle name="State" xfId="65"/>
-    <cellStyle name="Superscript" xfId="15"/>
-    <cellStyle name="Superscript 2" xfId="66"/>
-    <cellStyle name="Superscript- regular" xfId="67"/>
-    <cellStyle name="Superscript_1-1A-Regular" xfId="68"/>
-    <cellStyle name="Table Data" xfId="16"/>
-    <cellStyle name="Table Head Top" xfId="17"/>
-    <cellStyle name="Table Hed Side" xfId="18"/>
-    <cellStyle name="Table Title" xfId="19"/>
-    <cellStyle name="Title Text" xfId="20"/>
-    <cellStyle name="Title Text 1" xfId="21"/>
-    <cellStyle name="Title Text 2" xfId="22"/>
-    <cellStyle name="Title-1" xfId="23"/>
-    <cellStyle name="Title-2" xfId="24"/>
-    <cellStyle name="Title-3" xfId="25"/>
-    <cellStyle name="Total 2" xfId="70"/>
-    <cellStyle name="Total 3" xfId="69"/>
-    <cellStyle name="Wrap" xfId="26"/>
-    <cellStyle name="Wrap 2" xfId="71"/>
-    <cellStyle name="Wrap Bold" xfId="27"/>
-    <cellStyle name="Wrap Title" xfId="28"/>
-    <cellStyle name="Wrap_NTS99-~11" xfId="72"/>
+    <cellStyle name="Normal 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Normal 2 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="61" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Normal 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normal 3 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normal 4" xfId="11" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Normal 5" xfId="30" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Normal 6" xfId="32" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Normal 7" xfId="34" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Normal 8" xfId="38" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Normal 9" xfId="74" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Percent 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Reference" xfId="62" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Row heading" xfId="63" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Source Hed" xfId="12" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Source Letter" xfId="64" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Source Superscript" xfId="13" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Source Text" xfId="14" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="State" xfId="65" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Superscript" xfId="15" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Superscript 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Superscript- regular" xfId="67" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Superscript_1-1A-Regular" xfId="68" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Table Data" xfId="16" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Table Head Top" xfId="17" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Table Hed Side" xfId="18" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Table Title" xfId="19" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Title Text" xfId="20" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Title Text 1" xfId="21" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Title Text 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Title-1" xfId="23" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Title-2" xfId="24" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Title-3" xfId="25" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Total 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Total 3" xfId="69" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Wrap" xfId="26" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Wrap 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Wrap Bold" xfId="27" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Wrap Title" xfId="28" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Wrap_NTS99-~11" xfId="72" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1971,7 +1966,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2307,7 +2302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2317,52 +2312,52 @@
       <selection sqref="A1:AH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" style="4" customWidth="1"/>
-    <col min="2" max="28" width="9.28515625" style="2" customWidth="1"/>
-    <col min="29" max="33" width="11.7109375" style="2" customWidth="1"/>
-    <col min="34" max="34" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.7265625" style="4" customWidth="1"/>
+    <col min="2" max="28" width="9.26953125" style="2" customWidth="1"/>
+    <col min="29" max="33" width="11.7265625" style="2" customWidth="1"/>
+    <col min="34" max="34" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="35" max="16384" width="14" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
     </row>
     <row r="2" spans="1:34" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
@@ -2551,22 +2546,22 @@
       <c r="AB3" s="23">
         <v>2259337</v>
       </c>
-      <c r="AC3" s="53">
+      <c r="AC3" s="38">
         <v>2237035</v>
       </c>
-      <c r="AD3" s="53">
+      <c r="AD3" s="38">
         <v>2381632</v>
       </c>
-      <c r="AE3" s="53">
+      <c r="AE3" s="38">
         <v>2333649</v>
       </c>
-      <c r="AF3" s="53">
+      <c r="AF3" s="38">
         <v>2357388</v>
       </c>
-      <c r="AG3" s="53">
+      <c r="AG3" s="38">
         <v>2462217</v>
       </c>
-      <c r="AH3" s="57" t="s">
+      <c r="AH3" s="42" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3184,10 +3179,10 @@
       <c r="AE9" s="23">
         <v>2313000</v>
       </c>
-      <c r="AF9" s="53">
+      <c r="AF9" s="38">
         <v>2338000</v>
       </c>
-      <c r="AG9" s="53">
+      <c r="AG9" s="38">
         <v>2443000</v>
       </c>
       <c r="AH9" s="28" t="s">
@@ -3707,7 +3702,7 @@
       <c r="AF14" s="24">
         <v>14000</v>
       </c>
-      <c r="AG14" s="54">
+      <c r="AG14" s="39">
         <v>12000</v>
       </c>
       <c r="AH14" s="29" t="s">
@@ -4016,10 +4011,10 @@
       <c r="AE17" s="24">
         <v>16000</v>
       </c>
-      <c r="AF17" s="54">
+      <c r="AF17" s="39">
         <v>16000</v>
       </c>
-      <c r="AG17" s="54">
+      <c r="AG17" s="39">
         <v>18000</v>
       </c>
       <c r="AH17" s="29" t="s">
@@ -4111,22 +4106,22 @@
       <c r="AB18" s="23">
         <v>8379</v>
       </c>
-      <c r="AC18" s="53">
+      <c r="AC18" s="38">
         <v>8455</v>
       </c>
-      <c r="AD18" s="53">
+      <c r="AD18" s="38">
         <v>8462</v>
       </c>
-      <c r="AE18" s="53">
+      <c r="AE18" s="38">
         <v>8751</v>
       </c>
-      <c r="AF18" s="53">
+      <c r="AF18" s="38">
         <v>8800</v>
       </c>
-      <c r="AG18" s="53">
+      <c r="AG18" s="38">
         <v>9141</v>
       </c>
-      <c r="AH18" s="53">
+      <c r="AH18" s="38">
         <v>8434</v>
       </c>
     </row>
@@ -4224,7 +4219,7 @@
       <c r="AE19" s="33">
         <v>328</v>
       </c>
-      <c r="AF19" s="55">
+      <c r="AF19" s="40">
         <v>140</v>
       </c>
       <c r="AG19" s="33">
@@ -4331,10 +4326,10 @@
       <c r="AF20" s="33">
         <v>871</v>
       </c>
-      <c r="AG20" s="55">
+      <c r="AG20" s="40">
         <v>1045</v>
       </c>
-      <c r="AH20" s="55">
+      <c r="AH20" s="40">
         <v>840</v>
       </c>
     </row>
@@ -4438,7 +4433,7 @@
       <c r="AG21" s="33">
         <v>414</v>
       </c>
-      <c r="AH21" s="55">
+      <c r="AH21" s="40">
         <v>483</v>
       </c>
     </row>
@@ -4527,22 +4522,22 @@
       <c r="AB22" s="33">
         <v>6991</v>
       </c>
-      <c r="AC22" s="55">
+      <c r="AC22" s="40">
         <v>6824</v>
       </c>
-      <c r="AD22" s="55">
+      <c r="AD22" s="40">
         <v>6616</v>
       </c>
-      <c r="AE22" s="55">
+      <c r="AE22" s="40">
         <v>7014</v>
       </c>
-      <c r="AF22" s="55">
+      <c r="AF22" s="40">
         <v>7366</v>
       </c>
-      <c r="AG22" s="55">
+      <c r="AG22" s="40">
         <v>7119</v>
       </c>
-      <c r="AH22" s="55">
+      <c r="AH22" s="40">
         <v>6725</v>
       </c>
     </row>
@@ -4637,16 +4632,16 @@
       <c r="AD23" s="23">
         <v>23325</v>
       </c>
-      <c r="AE23" s="53">
+      <c r="AE23" s="38">
         <v>24760</v>
       </c>
       <c r="AF23" s="28">
         <v>24045</v>
       </c>
-      <c r="AG23" s="56">
+      <c r="AG23" s="41">
         <v>24299</v>
       </c>
-      <c r="AH23" s="56">
+      <c r="AH23" s="41">
         <v>24373</v>
       </c>
     </row>
@@ -4741,16 +4736,16 @@
       <c r="AD24" s="24">
         <v>16160</v>
       </c>
-      <c r="AE24" s="54">
+      <c r="AE24" s="39">
         <v>11415</v>
       </c>
-      <c r="AF24" s="54">
+      <c r="AF24" s="39">
         <v>11763</v>
       </c>
-      <c r="AG24" s="54">
+      <c r="AG24" s="39">
         <v>11874</v>
       </c>
-      <c r="AH24" s="54">
+      <c r="AH24" s="39">
         <v>11754</v>
       </c>
     </row>
@@ -4845,16 +4840,16 @@
       <c r="AD25" s="24">
         <v>1439</v>
       </c>
-      <c r="AE25" s="54">
+      <c r="AE25" s="39">
         <v>1655</v>
       </c>
-      <c r="AF25" s="54">
+      <c r="AF25" s="39">
         <v>1693</v>
       </c>
-      <c r="AG25" s="54">
+      <c r="AG25" s="39">
         <v>1877</v>
       </c>
-      <c r="AH25" s="54">
+      <c r="AH25" s="39">
         <v>2140</v>
       </c>
     </row>
@@ -4949,16 +4944,16 @@
       <c r="AD26" s="24">
         <v>5726</v>
       </c>
-      <c r="AE26" s="54">
+      <c r="AE26" s="39">
         <v>11690</v>
       </c>
-      <c r="AF26" s="54">
+      <c r="AF26" s="39">
         <v>10589</v>
       </c>
-      <c r="AG26" s="54">
+      <c r="AG26" s="39">
         <v>10548</v>
       </c>
-      <c r="AH26" s="54">
+      <c r="AH26" s="39">
         <v>10479</v>
       </c>
     </row>
@@ -5124,46 +5119,46 @@
       <c r="S28" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="T28" s="58">
+      <c r="T28" s="43">
         <v>154</v>
       </c>
-      <c r="U28" s="58">
+      <c r="U28" s="43">
         <v>180</v>
       </c>
-      <c r="V28" s="58">
+      <c r="V28" s="43">
         <v>222</v>
       </c>
-      <c r="W28" s="58">
+      <c r="W28" s="43">
         <v>201</v>
       </c>
-      <c r="X28" s="58">
+      <c r="X28" s="43">
         <v>240</v>
       </c>
-      <c r="Y28" s="58">
+      <c r="Y28" s="43">
         <v>241</v>
       </c>
-      <c r="Z28" s="58">
+      <c r="Z28" s="43">
         <v>201</v>
       </c>
-      <c r="AA28" s="58">
+      <c r="AA28" s="43">
         <v>199</v>
       </c>
-      <c r="AB28" s="58">
+      <c r="AB28" s="43">
         <v>210</v>
       </c>
-      <c r="AC28" s="58">
+      <c r="AC28" s="43">
         <v>352</v>
       </c>
-      <c r="AD28" s="58">
+      <c r="AD28" s="43">
         <v>177</v>
       </c>
-      <c r="AE28" s="58">
+      <c r="AE28" s="43">
         <v>459</v>
       </c>
-      <c r="AF28" s="58">
+      <c r="AF28" s="43">
         <v>337</v>
       </c>
-      <c r="AG28" s="58">
+      <c r="AG28" s="43">
         <v>313</v>
       </c>
       <c r="AH28" s="26" t="s">
@@ -5228,46 +5223,46 @@
       <c r="S29" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="T29" s="58">
+      <c r="T29" s="43">
         <v>220</v>
       </c>
-      <c r="U29" s="58">
+      <c r="U29" s="43">
         <v>298</v>
       </c>
-      <c r="V29" s="58">
+      <c r="V29" s="43">
         <v>232</v>
       </c>
-      <c r="W29" s="58">
+      <c r="W29" s="43">
         <v>297</v>
       </c>
-      <c r="X29" s="58">
+      <c r="X29" s="43">
         <v>276</v>
       </c>
-      <c r="Y29" s="58">
+      <c r="Y29" s="43">
         <v>222</v>
       </c>
-      <c r="Z29" s="58">
+      <c r="Z29" s="43">
         <v>220</v>
       </c>
-      <c r="AA29" s="58">
+      <c r="AA29" s="43">
         <v>217</v>
       </c>
-      <c r="AB29" s="58">
+      <c r="AB29" s="43">
         <v>254</v>
       </c>
-      <c r="AC29" s="58">
+      <c r="AC29" s="43">
         <v>232</v>
       </c>
-      <c r="AD29" s="58">
+      <c r="AD29" s="43">
         <v>58</v>
       </c>
-      <c r="AE29" s="58">
+      <c r="AE29" s="43">
         <v>196</v>
       </c>
-      <c r="AF29" s="58">
+      <c r="AF29" s="43">
         <v>225</v>
       </c>
-      <c r="AG29" s="58">
+      <c r="AG29" s="43">
         <v>165</v>
       </c>
       <c r="AH29" s="26" t="s">
@@ -5332,46 +5327,46 @@
       <c r="S30" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="T30" s="58">
+      <c r="T30" s="43">
         <v>160</v>
       </c>
-      <c r="U30" s="58">
+      <c r="U30" s="43">
         <v>167</v>
       </c>
-      <c r="V30" s="58">
+      <c r="V30" s="43">
         <v>157</v>
       </c>
-      <c r="W30" s="58">
+      <c r="W30" s="43">
         <v>176</v>
       </c>
-      <c r="X30" s="58">
+      <c r="X30" s="43">
         <v>233</v>
       </c>
-      <c r="Y30" s="58">
+      <c r="Y30" s="43">
         <v>165</v>
       </c>
-      <c r="Z30" s="58">
+      <c r="Z30" s="43">
         <v>135</v>
       </c>
-      <c r="AA30" s="58">
+      <c r="AA30" s="43">
         <v>169</v>
       </c>
-      <c r="AB30" s="58">
+      <c r="AB30" s="43">
         <v>153</v>
       </c>
-      <c r="AC30" s="58">
+      <c r="AC30" s="43">
         <v>158</v>
       </c>
-      <c r="AD30" s="58">
+      <c r="AD30" s="43">
         <v>92</v>
       </c>
-      <c r="AE30" s="58">
+      <c r="AE30" s="43">
         <v>157</v>
       </c>
-      <c r="AF30" s="58">
+      <c r="AF30" s="43">
         <v>144</v>
       </c>
-      <c r="AG30" s="58">
+      <c r="AG30" s="43">
         <v>74</v>
       </c>
       <c r="AH30" s="26" t="s">
@@ -5929,7 +5924,7 @@
       <c r="AF36" s="24">
         <v>665</v>
       </c>
-      <c r="AG36" s="54">
+      <c r="AG36" s="39">
         <v>870</v>
       </c>
       <c r="AH36" s="24">
@@ -6021,7 +6016,7 @@
       <c r="AB37" s="24">
         <v>4308</v>
       </c>
-      <c r="AC37" s="54">
+      <c r="AC37" s="39">
         <v>4499</v>
       </c>
       <c r="AD37" s="24">
@@ -6033,10 +6028,10 @@
       <c r="AF37" s="24">
         <v>4707</v>
       </c>
-      <c r="AG37" s="54">
+      <c r="AG37" s="39">
         <v>5032</v>
       </c>
-      <c r="AH37" s="54">
+      <c r="AH37" s="39">
         <v>4866</v>
       </c>
     </row>
@@ -6241,10 +6236,10 @@
       <c r="AF39" s="24">
         <v>195</v>
       </c>
-      <c r="AG39" s="54">
+      <c r="AG39" s="39">
         <v>329</v>
       </c>
-      <c r="AH39" s="54">
+      <c r="AH39" s="39">
         <v>234</v>
       </c>
     </row>
@@ -6437,7 +6432,7 @@
       <c r="AB41" s="24">
         <v>3947</v>
       </c>
-      <c r="AC41" s="54">
+      <c r="AC41" s="39">
         <v>3946</v>
       </c>
       <c r="AD41" s="24">
@@ -6449,10 +6444,10 @@
       <c r="AF41" s="24">
         <v>4364</v>
       </c>
-      <c r="AG41" s="54">
+      <c r="AG41" s="39">
         <v>4334</v>
       </c>
-      <c r="AH41" s="54">
+      <c r="AH41" s="39">
         <v>4190</v>
       </c>
     </row>
@@ -6541,22 +6536,22 @@
       <c r="AB42" s="24">
         <v>4072</v>
       </c>
-      <c r="AC42" s="54">
+      <c r="AC42" s="39">
         <v>3956</v>
       </c>
-      <c r="AD42" s="54">
+      <c r="AD42" s="39">
         <v>4021</v>
       </c>
-      <c r="AE42" s="54">
+      <c r="AE42" s="39">
         <v>3987</v>
       </c>
       <c r="AF42" s="24">
         <v>4095</v>
       </c>
-      <c r="AG42" s="54">
+      <c r="AG42" s="39">
         <v>4109</v>
       </c>
-      <c r="AH42" s="54">
+      <c r="AH42" s="39">
         <v>3573</v>
       </c>
     </row>
@@ -6652,7 +6647,7 @@
       <c r="AE43" s="24">
         <v>71</v>
       </c>
-      <c r="AF43" s="54">
+      <c r="AF43" s="39">
         <v>52</v>
       </c>
       <c r="AG43" s="24">
@@ -6955,16 +6950,16 @@
       <c r="AD46" s="33">
         <v>2576</v>
       </c>
-      <c r="AE46" s="54">
+      <c r="AE46" s="39">
         <v>2806</v>
       </c>
-      <c r="AF46" s="54">
+      <c r="AF46" s="39">
         <v>3002</v>
       </c>
-      <c r="AG46" s="54">
+      <c r="AG46" s="39">
         <v>2785</v>
       </c>
-      <c r="AH46" s="54">
+      <c r="AH46" s="39">
         <v>2537</v>
       </c>
     </row>
@@ -7177,7 +7172,7 @@
       </c>
     </row>
     <row r="49" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="59" t="s">
+      <c r="A49" s="44" t="s">
         <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -7281,7 +7276,7 @@
       </c>
     </row>
     <row r="50" spans="1:34" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="60" t="s">
+      <c r="A50" s="45" t="s">
         <v>99</v>
       </c>
       <c r="B50" s="32" t="s">
@@ -7380,114 +7375,114 @@
       <c r="AG50" s="30">
         <v>424</v>
       </c>
-      <c r="AH50" s="61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:34" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="51" t="s">
+      <c r="AH50" s="46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="51"/>
-      <c r="M51" s="51"/>
-      <c r="N51" s="51"/>
-      <c r="O51" s="51"/>
-      <c r="P51" s="51"/>
-      <c r="Q51" s="51"/>
-      <c r="R51" s="51"/>
-      <c r="S51" s="51"/>
-      <c r="T51" s="51"/>
-      <c r="U51" s="51"/>
-      <c r="V51" s="51"/>
-    </row>
-    <row r="52" spans="1:34" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="52"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="52"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="52"/>
-      <c r="P52" s="52"/>
-      <c r="Q52" s="52"/>
-      <c r="R52" s="52"/>
-      <c r="S52" s="52"/>
-      <c r="T52" s="52"/>
-      <c r="U52" s="52"/>
-      <c r="V52" s="52"/>
-    </row>
-    <row r="53" spans="1:34" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="47" t="s">
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="52"/>
+      <c r="P51" s="52"/>
+      <c r="Q51" s="52"/>
+      <c r="R51" s="52"/>
+      <c r="S51" s="52"/>
+      <c r="T51" s="52"/>
+      <c r="U51" s="52"/>
+      <c r="V51" s="52"/>
+    </row>
+    <row r="52" spans="1:34" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="53"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="53"/>
+      <c r="M52" s="53"/>
+      <c r="N52" s="53"/>
+      <c r="O52" s="53"/>
+      <c r="P52" s="53"/>
+      <c r="Q52" s="53"/>
+      <c r="R52" s="53"/>
+      <c r="S52" s="53"/>
+      <c r="T52" s="53"/>
+      <c r="U52" s="53"/>
+      <c r="V52" s="53"/>
+    </row>
+    <row r="53" spans="1:34" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="47"/>
-      <c r="P53" s="47"/>
-      <c r="Q53" s="47"/>
-      <c r="R53" s="47"/>
-      <c r="S53" s="47"/>
-      <c r="T53" s="47"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="50"/>
+      <c r="N53" s="50"/>
+      <c r="O53" s="50"/>
+      <c r="P53" s="50"/>
+      <c r="Q53" s="50"/>
+      <c r="R53" s="50"/>
+      <c r="S53" s="50"/>
+      <c r="T53" s="50"/>
+      <c r="U53" s="50"/>
+      <c r="V53" s="50"/>
       <c r="W53" s="13"/>
       <c r="X53" s="13"/>
       <c r="Y53" s="13"/>
     </row>
-    <row r="54" spans="1:34" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="47" t="s">
+    <row r="54" spans="1:34" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="47"/>
-      <c r="O54" s="47"/>
-      <c r="P54" s="47"/>
-      <c r="Q54" s="47"/>
-      <c r="R54" s="47"/>
-      <c r="S54" s="47"/>
-      <c r="T54" s="47"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="50"/>
+      <c r="M54" s="50"/>
+      <c r="N54" s="50"/>
+      <c r="O54" s="50"/>
+      <c r="P54" s="50"/>
+      <c r="Q54" s="50"/>
+      <c r="R54" s="50"/>
+      <c r="S54" s="50"/>
+      <c r="T54" s="50"/>
+      <c r="U54" s="50"/>
+      <c r="V54" s="50"/>
       <c r="W54" s="20"/>
       <c r="X54" s="20"/>
       <c r="Y54" s="20"/>
@@ -7499,31 +7494,31 @@
       <c r="AE54" s="20"/>
       <c r="AF54" s="20"/>
     </row>
-    <row r="55" spans="1:34" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="47" t="s">
+    <row r="55" spans="1:34" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="47"/>
-      <c r="J55" s="47"/>
-      <c r="K55" s="47"/>
-      <c r="L55" s="47"/>
-      <c r="M55" s="47"/>
-      <c r="N55" s="47"/>
-      <c r="O55" s="47"/>
-      <c r="P55" s="47"/>
-      <c r="Q55" s="47"/>
-      <c r="R55" s="47"/>
-      <c r="S55" s="47"/>
-      <c r="T55" s="47"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="50"/>
+      <c r="N55" s="50"/>
+      <c r="O55" s="50"/>
+      <c r="P55" s="50"/>
+      <c r="Q55" s="50"/>
+      <c r="R55" s="50"/>
+      <c r="S55" s="50"/>
+      <c r="T55" s="50"/>
+      <c r="U55" s="50"/>
+      <c r="V55" s="50"/>
       <c r="W55" s="20"/>
       <c r="X55" s="20"/>
       <c r="Y55" s="20"/>
@@ -7535,31 +7530,31 @@
       <c r="AE55" s="20"/>
       <c r="AF55" s="20"/>
     </row>
-    <row r="56" spans="1:34" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="47" t="s">
+    <row r="56" spans="1:34" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="47"/>
-      <c r="K56" s="47"/>
-      <c r="L56" s="47"/>
-      <c r="M56" s="47"/>
-      <c r="N56" s="47"/>
-      <c r="O56" s="47"/>
-      <c r="P56" s="47"/>
-      <c r="Q56" s="47"/>
-      <c r="R56" s="47"/>
-      <c r="S56" s="47"/>
-      <c r="T56" s="47"/>
-      <c r="U56" s="47"/>
-      <c r="V56" s="47"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="50"/>
+      <c r="M56" s="50"/>
+      <c r="N56" s="50"/>
+      <c r="O56" s="50"/>
+      <c r="P56" s="50"/>
+      <c r="Q56" s="50"/>
+      <c r="R56" s="50"/>
+      <c r="S56" s="50"/>
+      <c r="T56" s="50"/>
+      <c r="U56" s="50"/>
+      <c r="V56" s="50"/>
       <c r="W56" s="20"/>
       <c r="X56" s="20"/>
       <c r="Y56" s="20"/>
@@ -7571,31 +7566,31 @@
       <c r="AE56" s="20"/>
       <c r="AF56" s="20"/>
     </row>
-    <row r="57" spans="1:34" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="47" t="s">
+    <row r="57" spans="1:34" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="47"/>
-      <c r="K57" s="47"/>
-      <c r="L57" s="47"/>
-      <c r="M57" s="47"/>
-      <c r="N57" s="47"/>
-      <c r="O57" s="47"/>
-      <c r="P57" s="47"/>
-      <c r="Q57" s="47"/>
-      <c r="R57" s="47"/>
-      <c r="S57" s="47"/>
-      <c r="T57" s="47"/>
-      <c r="U57" s="47"/>
-      <c r="V57" s="47"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="50"/>
+      <c r="M57" s="50"/>
+      <c r="N57" s="50"/>
+      <c r="O57" s="50"/>
+      <c r="P57" s="50"/>
+      <c r="Q57" s="50"/>
+      <c r="R57" s="50"/>
+      <c r="S57" s="50"/>
+      <c r="T57" s="50"/>
+      <c r="U57" s="50"/>
+      <c r="V57" s="50"/>
       <c r="W57" s="20"/>
       <c r="X57" s="20"/>
       <c r="Y57" s="20"/>
@@ -7607,31 +7602,31 @@
       <c r="AE57" s="20"/>
       <c r="AF57" s="20"/>
     </row>
-    <row r="58" spans="1:34" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="47" t="s">
+    <row r="58" spans="1:34" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="47"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="47"/>
-      <c r="K58" s="47"/>
-      <c r="L58" s="47"/>
-      <c r="M58" s="47"/>
-      <c r="N58" s="47"/>
-      <c r="O58" s="47"/>
-      <c r="P58" s="47"/>
-      <c r="Q58" s="47"/>
-      <c r="R58" s="47"/>
-      <c r="S58" s="47"/>
-      <c r="T58" s="47"/>
-      <c r="U58" s="47"/>
-      <c r="V58" s="47"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="50"/>
+      <c r="M58" s="50"/>
+      <c r="N58" s="50"/>
+      <c r="O58" s="50"/>
+      <c r="P58" s="50"/>
+      <c r="Q58" s="50"/>
+      <c r="R58" s="50"/>
+      <c r="S58" s="50"/>
+      <c r="T58" s="50"/>
+      <c r="U58" s="50"/>
+      <c r="V58" s="50"/>
       <c r="W58" s="20"/>
       <c r="X58" s="20"/>
       <c r="Y58" s="20"/>
@@ -7643,31 +7638,31 @@
       <c r="AE58" s="20"/>
       <c r="AF58" s="20"/>
     </row>
-    <row r="59" spans="1:34" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="47" t="s">
+    <row r="59" spans="1:34" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B59" s="47"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="47"/>
-      <c r="K59" s="47"/>
-      <c r="L59" s="47"/>
-      <c r="M59" s="47"/>
-      <c r="N59" s="47"/>
-      <c r="O59" s="47"/>
-      <c r="P59" s="47"/>
-      <c r="Q59" s="47"/>
-      <c r="R59" s="47"/>
-      <c r="S59" s="47"/>
-      <c r="T59" s="47"/>
-      <c r="U59" s="47"/>
-      <c r="V59" s="47"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="50"/>
+      <c r="M59" s="50"/>
+      <c r="N59" s="50"/>
+      <c r="O59" s="50"/>
+      <c r="P59" s="50"/>
+      <c r="Q59" s="50"/>
+      <c r="R59" s="50"/>
+      <c r="S59" s="50"/>
+      <c r="T59" s="50"/>
+      <c r="U59" s="50"/>
+      <c r="V59" s="50"/>
       <c r="W59" s="20"/>
       <c r="X59" s="20"/>
       <c r="Y59" s="20"/>
@@ -7679,31 +7674,31 @@
       <c r="AE59" s="20"/>
       <c r="AF59" s="20"/>
     </row>
-    <row r="60" spans="1:34" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="47" t="s">
+    <row r="60" spans="1:34" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="47"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="47"/>
-      <c r="O60" s="47"/>
-      <c r="P60" s="47"/>
-      <c r="Q60" s="47"/>
-      <c r="R60" s="47"/>
-      <c r="S60" s="47"/>
-      <c r="T60" s="47"/>
-      <c r="U60" s="47"/>
-      <c r="V60" s="47"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="50"/>
+      <c r="M60" s="50"/>
+      <c r="N60" s="50"/>
+      <c r="O60" s="50"/>
+      <c r="P60" s="50"/>
+      <c r="Q60" s="50"/>
+      <c r="R60" s="50"/>
+      <c r="S60" s="50"/>
+      <c r="T60" s="50"/>
+      <c r="U60" s="50"/>
+      <c r="V60" s="50"/>
       <c r="W60" s="20"/>
       <c r="X60" s="20"/>
       <c r="Y60" s="20"/>
@@ -7715,31 +7710,31 @@
       <c r="AE60" s="20"/>
       <c r="AF60" s="20"/>
     </row>
-    <row r="61" spans="1:34" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="62" t="s">
+    <row r="61" spans="1:34" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="B61" s="62"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="62"/>
-      <c r="G61" s="62"/>
-      <c r="H61" s="62"/>
-      <c r="I61" s="62"/>
-      <c r="J61" s="62"/>
-      <c r="K61" s="62"/>
-      <c r="L61" s="62"/>
-      <c r="M61" s="62"/>
-      <c r="N61" s="62"/>
-      <c r="O61" s="62"/>
-      <c r="P61" s="62"/>
-      <c r="Q61" s="62"/>
-      <c r="R61" s="62"/>
-      <c r="S61" s="62"/>
-      <c r="T61" s="62"/>
-      <c r="U61" s="62"/>
-      <c r="V61" s="62"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="51"/>
+      <c r="M61" s="51"/>
+      <c r="N61" s="51"/>
+      <c r="O61" s="51"/>
+      <c r="P61" s="51"/>
+      <c r="Q61" s="51"/>
+      <c r="R61" s="51"/>
+      <c r="S61" s="51"/>
+      <c r="T61" s="51"/>
+      <c r="U61" s="51"/>
+      <c r="V61" s="51"/>
       <c r="W61" s="20"/>
       <c r="X61" s="20"/>
       <c r="Y61" s="20"/>
@@ -7751,31 +7746,31 @@
       <c r="AE61" s="20"/>
       <c r="AF61" s="20"/>
     </row>
-    <row r="62" spans="1:34" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="47" t="s">
+    <row r="62" spans="1:34" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="B62" s="47"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="47"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="47"/>
-      <c r="L62" s="47"/>
-      <c r="M62" s="47"/>
-      <c r="N62" s="47"/>
-      <c r="O62" s="47"/>
-      <c r="P62" s="47"/>
-      <c r="Q62" s="47"/>
-      <c r="R62" s="47"/>
-      <c r="S62" s="47"/>
-      <c r="T62" s="47"/>
-      <c r="U62" s="47"/>
-      <c r="V62" s="47"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="50"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="50"/>
+      <c r="L62" s="50"/>
+      <c r="M62" s="50"/>
+      <c r="N62" s="50"/>
+      <c r="O62" s="50"/>
+      <c r="P62" s="50"/>
+      <c r="Q62" s="50"/>
+      <c r="R62" s="50"/>
+      <c r="S62" s="50"/>
+      <c r="T62" s="50"/>
+      <c r="U62" s="50"/>
+      <c r="V62" s="50"/>
       <c r="W62" s="20"/>
       <c r="X62" s="20"/>
       <c r="Y62" s="20"/>
@@ -7787,31 +7782,31 @@
       <c r="AE62" s="20"/>
       <c r="AF62" s="20"/>
     </row>
-    <row r="63" spans="1:34" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="47" t="s">
+    <row r="63" spans="1:34" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="B63" s="47"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="47"/>
-      <c r="L63" s="47"/>
-      <c r="M63" s="47"/>
-      <c r="N63" s="47"/>
-      <c r="O63" s="47"/>
-      <c r="P63" s="47"/>
-      <c r="Q63" s="47"/>
-      <c r="R63" s="47"/>
-      <c r="S63" s="47"/>
-      <c r="T63" s="47"/>
-      <c r="U63" s="47"/>
-      <c r="V63" s="47"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="50"/>
+      <c r="L63" s="50"/>
+      <c r="M63" s="50"/>
+      <c r="N63" s="50"/>
+      <c r="O63" s="50"/>
+      <c r="P63" s="50"/>
+      <c r="Q63" s="50"/>
+      <c r="R63" s="50"/>
+      <c r="S63" s="50"/>
+      <c r="T63" s="50"/>
+      <c r="U63" s="50"/>
+      <c r="V63" s="50"/>
       <c r="W63" s="20"/>
       <c r="X63" s="20"/>
       <c r="Y63" s="20"/>
@@ -7823,31 +7818,31 @@
       <c r="AE63" s="20"/>
       <c r="AF63" s="20"/>
     </row>
-    <row r="64" spans="1:34" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="47" t="s">
+    <row r="64" spans="1:34" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="47"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="47"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="47"/>
-      <c r="J64" s="47"/>
-      <c r="K64" s="47"/>
-      <c r="L64" s="47"/>
-      <c r="M64" s="47"/>
-      <c r="N64" s="47"/>
-      <c r="O64" s="47"/>
-      <c r="P64" s="47"/>
-      <c r="Q64" s="47"/>
-      <c r="R64" s="47"/>
-      <c r="S64" s="47"/>
-      <c r="T64" s="47"/>
-      <c r="U64" s="47"/>
-      <c r="V64" s="47"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
+      <c r="L64" s="50"/>
+      <c r="M64" s="50"/>
+      <c r="N64" s="50"/>
+      <c r="O64" s="50"/>
+      <c r="P64" s="50"/>
+      <c r="Q64" s="50"/>
+      <c r="R64" s="50"/>
+      <c r="S64" s="50"/>
+      <c r="T64" s="50"/>
+      <c r="U64" s="50"/>
+      <c r="V64" s="50"/>
       <c r="W64" s="20"/>
       <c r="X64" s="20"/>
       <c r="Y64" s="20"/>
@@ -7859,31 +7854,31 @@
       <c r="AE64" s="20"/>
       <c r="AF64" s="20"/>
     </row>
-    <row r="65" spans="1:32" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="47" t="s">
+    <row r="65" spans="1:32" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="47"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="47"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="47"/>
-      <c r="L65" s="47"/>
-      <c r="M65" s="47"/>
-      <c r="N65" s="47"/>
-      <c r="O65" s="47"/>
-      <c r="P65" s="47"/>
-      <c r="Q65" s="47"/>
-      <c r="R65" s="47"/>
-      <c r="S65" s="47"/>
-      <c r="T65" s="47"/>
-      <c r="U65" s="47"/>
-      <c r="V65" s="47"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="50"/>
+      <c r="L65" s="50"/>
+      <c r="M65" s="50"/>
+      <c r="N65" s="50"/>
+      <c r="O65" s="50"/>
+      <c r="P65" s="50"/>
+      <c r="Q65" s="50"/>
+      <c r="R65" s="50"/>
+      <c r="S65" s="50"/>
+      <c r="T65" s="50"/>
+      <c r="U65" s="50"/>
+      <c r="V65" s="50"/>
       <c r="W65" s="20"/>
       <c r="X65" s="20"/>
       <c r="Y65" s="20"/>
@@ -7895,31 +7890,31 @@
       <c r="AE65" s="20"/>
       <c r="AF65" s="20"/>
     </row>
-    <row r="66" spans="1:32" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="47" t="s">
+    <row r="66" spans="1:32" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="47"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="47"/>
-      <c r="I66" s="47"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="47"/>
-      <c r="L66" s="47"/>
-      <c r="M66" s="47"/>
-      <c r="N66" s="47"/>
-      <c r="O66" s="47"/>
-      <c r="P66" s="47"/>
-      <c r="Q66" s="47"/>
-      <c r="R66" s="47"/>
-      <c r="S66" s="47"/>
-      <c r="T66" s="47"/>
-      <c r="U66" s="47"/>
-      <c r="V66" s="47"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="50"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="50"/>
+      <c r="L66" s="50"/>
+      <c r="M66" s="50"/>
+      <c r="N66" s="50"/>
+      <c r="O66" s="50"/>
+      <c r="P66" s="50"/>
+      <c r="Q66" s="50"/>
+      <c r="R66" s="50"/>
+      <c r="S66" s="50"/>
+      <c r="T66" s="50"/>
+      <c r="U66" s="50"/>
+      <c r="V66" s="50"/>
       <c r="W66" s="20"/>
       <c r="X66" s="20"/>
       <c r="Y66" s="20"/>
@@ -7931,31 +7926,31 @@
       <c r="AE66" s="20"/>
       <c r="AF66" s="20"/>
     </row>
-    <row r="67" spans="1:32" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="47" t="s">
+    <row r="67" spans="1:32" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="47"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="47"/>
-      <c r="I67" s="47"/>
-      <c r="J67" s="47"/>
-      <c r="K67" s="47"/>
-      <c r="L67" s="47"/>
-      <c r="M67" s="47"/>
-      <c r="N67" s="47"/>
-      <c r="O67" s="47"/>
-      <c r="P67" s="47"/>
-      <c r="Q67" s="47"/>
-      <c r="R67" s="47"/>
-      <c r="S67" s="47"/>
-      <c r="T67" s="47"/>
-      <c r="U67" s="47"/>
-      <c r="V67" s="47"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="50"/>
+      <c r="L67" s="50"/>
+      <c r="M67" s="50"/>
+      <c r="N67" s="50"/>
+      <c r="O67" s="50"/>
+      <c r="P67" s="50"/>
+      <c r="Q67" s="50"/>
+      <c r="R67" s="50"/>
+      <c r="S67" s="50"/>
+      <c r="T67" s="50"/>
+      <c r="U67" s="50"/>
+      <c r="V67" s="50"/>
       <c r="W67" s="20"/>
       <c r="X67" s="20"/>
       <c r="Y67" s="20"/>
@@ -7967,31 +7962,31 @@
       <c r="AE67" s="20"/>
       <c r="AF67" s="20"/>
     </row>
-    <row r="68" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="48" t="s">
+    <row r="68" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="48"/>
-      <c r="J68" s="48"/>
-      <c r="K68" s="48"/>
-      <c r="L68" s="48"/>
-      <c r="M68" s="48"/>
-      <c r="N68" s="48"/>
-      <c r="O68" s="48"/>
-      <c r="P68" s="48"/>
-      <c r="Q68" s="48"/>
-      <c r="R68" s="48"/>
-      <c r="S68" s="48"/>
-      <c r="T68" s="48"/>
-      <c r="U68" s="48"/>
-      <c r="V68" s="48"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="54"/>
+      <c r="K68" s="54"/>
+      <c r="L68" s="54"/>
+      <c r="M68" s="54"/>
+      <c r="N68" s="54"/>
+      <c r="O68" s="54"/>
+      <c r="P68" s="54"/>
+      <c r="Q68" s="54"/>
+      <c r="R68" s="54"/>
+      <c r="S68" s="54"/>
+      <c r="T68" s="54"/>
+      <c r="U68" s="54"/>
+      <c r="V68" s="54"/>
       <c r="W68" s="20"/>
       <c r="X68" s="20"/>
       <c r="Y68" s="20"/>
@@ -8003,31 +7998,31 @@
       <c r="AE68" s="20"/>
       <c r="AF68" s="20"/>
     </row>
-    <row r="69" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="49" t="s">
+    <row r="69" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B69" s="49"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="49"/>
-      <c r="J69" s="49"/>
-      <c r="K69" s="49"/>
-      <c r="L69" s="49"/>
-      <c r="M69" s="49"/>
-      <c r="N69" s="49"/>
-      <c r="O69" s="49"/>
-      <c r="P69" s="49"/>
-      <c r="Q69" s="49"/>
-      <c r="R69" s="49"/>
-      <c r="S69" s="49"/>
-      <c r="T69" s="49"/>
-      <c r="U69" s="49"/>
-      <c r="V69" s="49"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="55"/>
+      <c r="H69" s="55"/>
+      <c r="I69" s="55"/>
+      <c r="J69" s="55"/>
+      <c r="K69" s="55"/>
+      <c r="L69" s="55"/>
+      <c r="M69" s="55"/>
+      <c r="N69" s="55"/>
+      <c r="O69" s="55"/>
+      <c r="P69" s="55"/>
+      <c r="Q69" s="55"/>
+      <c r="R69" s="55"/>
+      <c r="S69" s="55"/>
+      <c r="T69" s="55"/>
+      <c r="U69" s="55"/>
+      <c r="V69" s="55"/>
       <c r="W69" s="37"/>
       <c r="X69" s="37"/>
       <c r="Y69" s="37"/>
@@ -8038,31 +8033,31 @@
       <c r="AD69" s="37"/>
       <c r="AE69" s="37"/>
     </row>
-    <row r="70" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="44" t="s">
+    <row r="70" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="B70" s="44"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="44"/>
-      <c r="J70" s="44"/>
-      <c r="K70" s="44"/>
-      <c r="L70" s="44"/>
-      <c r="M70" s="44"/>
-      <c r="N70" s="44"/>
-      <c r="O70" s="44"/>
-      <c r="P70" s="44"/>
-      <c r="Q70" s="44"/>
-      <c r="R70" s="44"/>
-      <c r="S70" s="44"/>
-      <c r="T70" s="44"/>
-      <c r="U70" s="44"/>
-      <c r="V70" s="44"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="59"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="59"/>
+      <c r="J70" s="59"/>
+      <c r="K70" s="59"/>
+      <c r="L70" s="59"/>
+      <c r="M70" s="59"/>
+      <c r="N70" s="59"/>
+      <c r="O70" s="59"/>
+      <c r="P70" s="59"/>
+      <c r="Q70" s="59"/>
+      <c r="R70" s="59"/>
+      <c r="S70" s="59"/>
+      <c r="T70" s="59"/>
+      <c r="U70" s="59"/>
+      <c r="V70" s="59"/>
       <c r="W70" s="36"/>
       <c r="X70" s="36"/>
       <c r="Y70" s="36"/>
@@ -8074,31 +8069,31 @@
       <c r="AE70" s="36"/>
       <c r="AF70" s="36"/>
     </row>
-    <row r="71" spans="1:32" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="44" t="s">
+    <row r="71" spans="1:32" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="B71" s="44"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="44"/>
-      <c r="K71" s="44"/>
-      <c r="L71" s="44"/>
-      <c r="M71" s="44"/>
-      <c r="N71" s="44"/>
-      <c r="O71" s="44"/>
-      <c r="P71" s="44"/>
-      <c r="Q71" s="44"/>
-      <c r="R71" s="44"/>
-      <c r="S71" s="44"/>
-      <c r="T71" s="44"/>
-      <c r="U71" s="44"/>
-      <c r="V71" s="44"/>
+      <c r="B71" s="59"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="59"/>
+      <c r="H71" s="59"/>
+      <c r="I71" s="59"/>
+      <c r="J71" s="59"/>
+      <c r="K71" s="59"/>
+      <c r="L71" s="59"/>
+      <c r="M71" s="59"/>
+      <c r="N71" s="59"/>
+      <c r="O71" s="59"/>
+      <c r="P71" s="59"/>
+      <c r="Q71" s="59"/>
+      <c r="R71" s="59"/>
+      <c r="S71" s="59"/>
+      <c r="T71" s="59"/>
+      <c r="U71" s="59"/>
+      <c r="V71" s="59"/>
       <c r="W71" s="36"/>
       <c r="X71" s="36"/>
       <c r="Y71" s="36"/>
@@ -8110,29 +8105,29 @@
       <c r="AE71" s="36"/>
       <c r="AF71" s="36"/>
     </row>
-    <row r="72" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="45"/>
-      <c r="B72" s="45"/>
-      <c r="C72" s="45"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="45"/>
-      <c r="F72" s="45"/>
-      <c r="G72" s="45"/>
-      <c r="H72" s="45"/>
-      <c r="I72" s="45"/>
-      <c r="J72" s="45"/>
-      <c r="K72" s="45"/>
-      <c r="L72" s="45"/>
-      <c r="M72" s="45"/>
-      <c r="N72" s="45"/>
-      <c r="O72" s="45"/>
-      <c r="P72" s="45"/>
-      <c r="Q72" s="45"/>
-      <c r="R72" s="45"/>
-      <c r="S72" s="45"/>
-      <c r="T72" s="45"/>
-      <c r="U72" s="45"/>
-      <c r="V72" s="45"/>
+    <row r="72" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="60"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="60"/>
+      <c r="I72" s="60"/>
+      <c r="J72" s="60"/>
+      <c r="K72" s="60"/>
+      <c r="L72" s="60"/>
+      <c r="M72" s="60"/>
+      <c r="N72" s="60"/>
+      <c r="O72" s="60"/>
+      <c r="P72" s="60"/>
+      <c r="Q72" s="60"/>
+      <c r="R72" s="60"/>
+      <c r="S72" s="60"/>
+      <c r="T72" s="60"/>
+      <c r="U72" s="60"/>
+      <c r="V72" s="60"/>
       <c r="W72" s="22"/>
       <c r="X72" s="22"/>
       <c r="Y72" s="22"/>
@@ -8144,31 +8139,31 @@
       <c r="AE72" s="22"/>
       <c r="AF72" s="22"/>
     </row>
-    <row r="73" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="39" t="s">
+    <row r="73" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="39"/>
-      <c r="J73" s="39"/>
-      <c r="K73" s="39"/>
-      <c r="L73" s="39"/>
-      <c r="M73" s="39"/>
-      <c r="N73" s="39"/>
-      <c r="O73" s="39"/>
-      <c r="P73" s="39"/>
-      <c r="Q73" s="39"/>
-      <c r="R73" s="39"/>
-      <c r="S73" s="39"/>
-      <c r="T73" s="39"/>
-      <c r="U73" s="39"/>
-      <c r="V73" s="39"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="57"/>
+      <c r="G73" s="57"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="57"/>
+      <c r="J73" s="57"/>
+      <c r="K73" s="57"/>
+      <c r="L73" s="57"/>
+      <c r="M73" s="57"/>
+      <c r="N73" s="57"/>
+      <c r="O73" s="57"/>
+      <c r="P73" s="57"/>
+      <c r="Q73" s="57"/>
+      <c r="R73" s="57"/>
+      <c r="S73" s="57"/>
+      <c r="T73" s="57"/>
+      <c r="U73" s="57"/>
+      <c r="V73" s="57"/>
       <c r="W73" s="22"/>
       <c r="X73" s="22"/>
       <c r="Y73" s="22"/>
@@ -8180,31 +8175,31 @@
       <c r="AE73" s="22"/>
       <c r="AF73" s="22"/>
     </row>
-    <row r="74" spans="1:32" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="41" t="s">
+    <row r="74" spans="1:32" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="41"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="41"/>
-      <c r="F74" s="41"/>
-      <c r="G74" s="41"/>
-      <c r="H74" s="41"/>
-      <c r="I74" s="41"/>
-      <c r="J74" s="41"/>
-      <c r="K74" s="41"/>
-      <c r="L74" s="41"/>
-      <c r="M74" s="41"/>
-      <c r="N74" s="41"/>
-      <c r="O74" s="41"/>
-      <c r="P74" s="41"/>
-      <c r="Q74" s="41"/>
-      <c r="R74" s="41"/>
-      <c r="S74" s="41"/>
-      <c r="T74" s="41"/>
-      <c r="U74" s="41"/>
-      <c r="V74" s="41"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="56"/>
+      <c r="H74" s="56"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="56"/>
+      <c r="K74" s="56"/>
+      <c r="L74" s="56"/>
+      <c r="M74" s="56"/>
+      <c r="N74" s="56"/>
+      <c r="O74" s="56"/>
+      <c r="P74" s="56"/>
+      <c r="Q74" s="56"/>
+      <c r="R74" s="56"/>
+      <c r="S74" s="56"/>
+      <c r="T74" s="56"/>
+      <c r="U74" s="56"/>
+      <c r="V74" s="56"/>
       <c r="W74" s="21"/>
       <c r="X74" s="21"/>
       <c r="Y74" s="21"/>
@@ -8216,31 +8211,31 @@
       <c r="AE74" s="21"/>
       <c r="AF74" s="21"/>
     </row>
-    <row r="75" spans="1:32" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="41" t="s">
+    <row r="75" spans="1:32" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B75" s="41"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="41"/>
-      <c r="I75" s="41"/>
-      <c r="J75" s="41"/>
-      <c r="K75" s="41"/>
-      <c r="L75" s="41"/>
-      <c r="M75" s="41"/>
-      <c r="N75" s="41"/>
-      <c r="O75" s="41"/>
-      <c r="P75" s="41"/>
-      <c r="Q75" s="41"/>
-      <c r="R75" s="41"/>
-      <c r="S75" s="41"/>
-      <c r="T75" s="41"/>
-      <c r="U75" s="41"/>
-      <c r="V75" s="41"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="56"/>
+      <c r="K75" s="56"/>
+      <c r="L75" s="56"/>
+      <c r="M75" s="56"/>
+      <c r="N75" s="56"/>
+      <c r="O75" s="56"/>
+      <c r="P75" s="56"/>
+      <c r="Q75" s="56"/>
+      <c r="R75" s="56"/>
+      <c r="S75" s="56"/>
+      <c r="T75" s="56"/>
+      <c r="U75" s="56"/>
+      <c r="V75" s="56"/>
       <c r="W75" s="21"/>
       <c r="X75" s="21"/>
       <c r="Y75" s="21"/>
@@ -8252,31 +8247,31 @@
       <c r="AE75" s="21"/>
       <c r="AF75" s="21"/>
     </row>
-    <row r="76" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="41" t="s">
+    <row r="76" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="B76" s="41"/>
-      <c r="C76" s="41"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="41"/>
-      <c r="G76" s="41"/>
-      <c r="H76" s="41"/>
-      <c r="I76" s="41"/>
-      <c r="J76" s="41"/>
-      <c r="K76" s="41"/>
-      <c r="L76" s="41"/>
-      <c r="M76" s="41"/>
-      <c r="N76" s="41"/>
-      <c r="O76" s="41"/>
-      <c r="P76" s="41"/>
-      <c r="Q76" s="41"/>
-      <c r="R76" s="41"/>
-      <c r="S76" s="41"/>
-      <c r="T76" s="41"/>
-      <c r="U76" s="41"/>
-      <c r="V76" s="41"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="56"/>
+      <c r="L76" s="56"/>
+      <c r="M76" s="56"/>
+      <c r="N76" s="56"/>
+      <c r="O76" s="56"/>
+      <c r="P76" s="56"/>
+      <c r="Q76" s="56"/>
+      <c r="R76" s="56"/>
+      <c r="S76" s="56"/>
+      <c r="T76" s="56"/>
+      <c r="U76" s="56"/>
+      <c r="V76" s="56"/>
       <c r="W76" s="21"/>
       <c r="X76" s="21"/>
       <c r="Y76" s="21"/>
@@ -8288,31 +8283,31 @@
       <c r="AE76" s="21"/>
       <c r="AF76" s="21"/>
     </row>
-    <row r="77" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="41" t="s">
+    <row r="77" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="41"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="41"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="41"/>
-      <c r="K77" s="41"/>
-      <c r="L77" s="41"/>
-      <c r="M77" s="41"/>
-      <c r="N77" s="41"/>
-      <c r="O77" s="41"/>
-      <c r="P77" s="41"/>
-      <c r="Q77" s="41"/>
-      <c r="R77" s="41"/>
-      <c r="S77" s="41"/>
-      <c r="T77" s="41"/>
-      <c r="U77" s="41"/>
-      <c r="V77" s="41"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="56"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="56"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="56"/>
+      <c r="K77" s="56"/>
+      <c r="L77" s="56"/>
+      <c r="M77" s="56"/>
+      <c r="N77" s="56"/>
+      <c r="O77" s="56"/>
+      <c r="P77" s="56"/>
+      <c r="Q77" s="56"/>
+      <c r="R77" s="56"/>
+      <c r="S77" s="56"/>
+      <c r="T77" s="56"/>
+      <c r="U77" s="56"/>
+      <c r="V77" s="56"/>
       <c r="W77" s="21"/>
       <c r="X77" s="21"/>
       <c r="Y77" s="21"/>
@@ -8324,146 +8319,146 @@
       <c r="AE77" s="21"/>
       <c r="AF77" s="21"/>
     </row>
-    <row r="78" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="63" t="s">
+    <row r="78" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="B78" s="63"/>
-      <c r="C78" s="63"/>
-      <c r="D78" s="63"/>
-      <c r="E78" s="63"/>
-      <c r="F78" s="63"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="63"/>
-      <c r="I78" s="63"/>
-      <c r="J78" s="63"/>
-      <c r="K78" s="63"/>
-      <c r="L78" s="63"/>
-      <c r="M78" s="63"/>
-      <c r="N78" s="63"/>
-      <c r="O78" s="63"/>
-      <c r="P78" s="63"/>
-      <c r="Q78" s="63"/>
-      <c r="R78" s="63"/>
-      <c r="S78" s="63"/>
-      <c r="T78" s="63"/>
-      <c r="U78" s="63"/>
-      <c r="V78" s="63"/>
-      <c r="W78" s="64"/>
-      <c r="X78" s="64"/>
-      <c r="Y78" s="64"/>
-      <c r="Z78" s="64"/>
-      <c r="AA78" s="64"/>
-    </row>
-    <row r="79" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="39"/>
-      <c r="B79" s="39"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="39"/>
-      <c r="J79" s="39"/>
-      <c r="K79" s="39"/>
-      <c r="L79" s="39"/>
-      <c r="M79" s="39"/>
-      <c r="N79" s="39"/>
-      <c r="O79" s="39"/>
-      <c r="P79" s="39"/>
-      <c r="Q79" s="39"/>
-      <c r="R79" s="39"/>
-      <c r="S79" s="39"/>
-      <c r="T79" s="39"/>
-      <c r="U79" s="39"/>
-      <c r="V79" s="39"/>
-    </row>
-    <row r="80" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="46" t="s">
+      <c r="B78" s="49"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="49"/>
+      <c r="F78" s="49"/>
+      <c r="G78" s="49"/>
+      <c r="H78" s="49"/>
+      <c r="I78" s="49"/>
+      <c r="J78" s="49"/>
+      <c r="K78" s="49"/>
+      <c r="L78" s="49"/>
+      <c r="M78" s="49"/>
+      <c r="N78" s="49"/>
+      <c r="O78" s="49"/>
+      <c r="P78" s="49"/>
+      <c r="Q78" s="49"/>
+      <c r="R78" s="49"/>
+      <c r="S78" s="49"/>
+      <c r="T78" s="49"/>
+      <c r="U78" s="49"/>
+      <c r="V78" s="49"/>
+      <c r="W78" s="47"/>
+      <c r="X78" s="47"/>
+      <c r="Y78" s="47"/>
+      <c r="Z78" s="47"/>
+      <c r="AA78" s="47"/>
+    </row>
+    <row r="79" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="57"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="57"/>
+      <c r="J79" s="57"/>
+      <c r="K79" s="57"/>
+      <c r="L79" s="57"/>
+      <c r="M79" s="57"/>
+      <c r="N79" s="57"/>
+      <c r="O79" s="57"/>
+      <c r="P79" s="57"/>
+      <c r="Q79" s="57"/>
+      <c r="R79" s="57"/>
+      <c r="S79" s="57"/>
+      <c r="T79" s="57"/>
+      <c r="U79" s="57"/>
+      <c r="V79" s="57"/>
+    </row>
+    <row r="80" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B80" s="46"/>
-      <c r="C80" s="46"/>
-      <c r="D80" s="46"/>
-      <c r="E80" s="46"/>
-      <c r="F80" s="46"/>
-      <c r="G80" s="46"/>
-      <c r="H80" s="46"/>
-      <c r="I80" s="46"/>
-      <c r="J80" s="46"/>
-      <c r="K80" s="46"/>
-      <c r="L80" s="46"/>
-      <c r="M80" s="46"/>
-      <c r="N80" s="46"/>
-      <c r="O80" s="46"/>
-      <c r="P80" s="46"/>
-      <c r="Q80" s="46"/>
-      <c r="R80" s="46"/>
-      <c r="S80" s="46"/>
-      <c r="T80" s="46"/>
-      <c r="U80" s="46"/>
-      <c r="V80" s="46"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="58"/>
+      <c r="E80" s="58"/>
+      <c r="F80" s="58"/>
+      <c r="G80" s="58"/>
+      <c r="H80" s="58"/>
+      <c r="I80" s="58"/>
+      <c r="J80" s="58"/>
+      <c r="K80" s="58"/>
+      <c r="L80" s="58"/>
+      <c r="M80" s="58"/>
+      <c r="N80" s="58"/>
+      <c r="O80" s="58"/>
+      <c r="P80" s="58"/>
+      <c r="Q80" s="58"/>
+      <c r="R80" s="58"/>
+      <c r="S80" s="58"/>
+      <c r="T80" s="58"/>
+      <c r="U80" s="58"/>
+      <c r="V80" s="58"/>
       <c r="W80" s="35"/>
       <c r="X80" s="35"/>
       <c r="Y80" s="35"/>
     </row>
-    <row r="81" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="39" t="s">
+    <row r="81" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="39"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="39"/>
-      <c r="F81" s="39"/>
-      <c r="G81" s="39"/>
-      <c r="H81" s="39"/>
-      <c r="I81" s="39"/>
-      <c r="J81" s="39"/>
-      <c r="K81" s="39"/>
-      <c r="L81" s="39"/>
-      <c r="M81" s="39"/>
-      <c r="N81" s="39"/>
-      <c r="O81" s="39"/>
-      <c r="P81" s="39"/>
-      <c r="Q81" s="39"/>
-      <c r="R81" s="39"/>
-      <c r="S81" s="39"/>
-      <c r="T81" s="39"/>
-      <c r="U81" s="39"/>
-      <c r="V81" s="39"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="57"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="57"/>
+      <c r="J81" s="57"/>
+      <c r="K81" s="57"/>
+      <c r="L81" s="57"/>
+      <c r="M81" s="57"/>
+      <c r="N81" s="57"/>
+      <c r="O81" s="57"/>
+      <c r="P81" s="57"/>
+      <c r="Q81" s="57"/>
+      <c r="R81" s="57"/>
+      <c r="S81" s="57"/>
+      <c r="T81" s="57"/>
+      <c r="U81" s="57"/>
+      <c r="V81" s="57"/>
       <c r="AB81" s="21"/>
       <c r="AC81" s="21"/>
       <c r="AD81" s="21"/>
       <c r="AE81" s="21"/>
       <c r="AF81" s="21"/>
     </row>
-    <row r="82" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="41" t="s">
+    <row r="82" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="B82" s="41"/>
-      <c r="C82" s="41"/>
-      <c r="D82" s="41"/>
-      <c r="E82" s="41"/>
-      <c r="F82" s="41"/>
-      <c r="G82" s="41"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="41"/>
-      <c r="J82" s="41"/>
-      <c r="K82" s="41"/>
-      <c r="L82" s="41"/>
-      <c r="M82" s="41"/>
-      <c r="N82" s="41"/>
-      <c r="O82" s="41"/>
-      <c r="P82" s="41"/>
-      <c r="Q82" s="41"/>
-      <c r="R82" s="41"/>
-      <c r="S82" s="41"/>
-      <c r="T82" s="41"/>
-      <c r="U82" s="41"/>
-      <c r="V82" s="41"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="56"/>
+      <c r="I82" s="56"/>
+      <c r="J82" s="56"/>
+      <c r="K82" s="56"/>
+      <c r="L82" s="56"/>
+      <c r="M82" s="56"/>
+      <c r="N82" s="56"/>
+      <c r="O82" s="56"/>
+      <c r="P82" s="56"/>
+      <c r="Q82" s="56"/>
+      <c r="R82" s="56"/>
+      <c r="S82" s="56"/>
+      <c r="T82" s="56"/>
+      <c r="U82" s="56"/>
+      <c r="V82" s="56"/>
       <c r="W82" s="21"/>
       <c r="X82" s="21"/>
       <c r="Y82" s="21"/>
@@ -8475,31 +8470,31 @@
       <c r="AE82" s="21"/>
       <c r="AF82" s="21"/>
     </row>
-    <row r="83" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="41" t="s">
+    <row r="83" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="B83" s="41"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="41"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="41"/>
-      <c r="J83" s="41"/>
-      <c r="K83" s="41"/>
-      <c r="L83" s="41"/>
-      <c r="M83" s="41"/>
-      <c r="N83" s="41"/>
-      <c r="O83" s="41"/>
-      <c r="P83" s="41"/>
-      <c r="Q83" s="41"/>
-      <c r="R83" s="41"/>
-      <c r="S83" s="41"/>
-      <c r="T83" s="41"/>
-      <c r="U83" s="41"/>
-      <c r="V83" s="41"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="56"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="56"/>
+      <c r="K83" s="56"/>
+      <c r="L83" s="56"/>
+      <c r="M83" s="56"/>
+      <c r="N83" s="56"/>
+      <c r="O83" s="56"/>
+      <c r="P83" s="56"/>
+      <c r="Q83" s="56"/>
+      <c r="R83" s="56"/>
+      <c r="S83" s="56"/>
+      <c r="T83" s="56"/>
+      <c r="U83" s="56"/>
+      <c r="V83" s="56"/>
       <c r="W83" s="21"/>
       <c r="X83" s="21"/>
       <c r="Y83" s="21"/>
@@ -8511,31 +8506,31 @@
       <c r="AE83" s="22"/>
       <c r="AF83" s="22"/>
     </row>
-    <row r="84" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="39" t="s">
+    <row r="84" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="39"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="39"/>
-      <c r="K84" s="39"/>
-      <c r="L84" s="39"/>
-      <c r="M84" s="39"/>
-      <c r="N84" s="39"/>
-      <c r="O84" s="39"/>
-      <c r="P84" s="39"/>
-      <c r="Q84" s="39"/>
-      <c r="R84" s="39"/>
-      <c r="S84" s="39"/>
-      <c r="T84" s="39"/>
-      <c r="U84" s="39"/>
-      <c r="V84" s="39"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="57"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="57"/>
+      <c r="K84" s="57"/>
+      <c r="L84" s="57"/>
+      <c r="M84" s="57"/>
+      <c r="N84" s="57"/>
+      <c r="O84" s="57"/>
+      <c r="P84" s="57"/>
+      <c r="Q84" s="57"/>
+      <c r="R84" s="57"/>
+      <c r="S84" s="57"/>
+      <c r="T84" s="57"/>
+      <c r="U84" s="57"/>
+      <c r="V84" s="57"/>
       <c r="W84" s="22"/>
       <c r="X84" s="22"/>
       <c r="Y84" s="22"/>
@@ -8547,31 +8542,31 @@
       <c r="AE84" s="21"/>
       <c r="AF84" s="21"/>
     </row>
-    <row r="85" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="41" t="s">
+    <row r="85" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B85" s="41"/>
-      <c r="C85" s="41"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="41"/>
-      <c r="F85" s="41"/>
-      <c r="G85" s="41"/>
-      <c r="H85" s="41"/>
-      <c r="I85" s="41"/>
-      <c r="J85" s="41"/>
-      <c r="K85" s="41"/>
-      <c r="L85" s="41"/>
-      <c r="M85" s="41"/>
-      <c r="N85" s="41"/>
-      <c r="O85" s="41"/>
-      <c r="P85" s="41"/>
-      <c r="Q85" s="41"/>
-      <c r="R85" s="41"/>
-      <c r="S85" s="41"/>
-      <c r="T85" s="41"/>
-      <c r="U85" s="41"/>
-      <c r="V85" s="41"/>
+      <c r="B85" s="56"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="56"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="56"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="56"/>
+      <c r="K85" s="56"/>
+      <c r="L85" s="56"/>
+      <c r="M85" s="56"/>
+      <c r="N85" s="56"/>
+      <c r="O85" s="56"/>
+      <c r="P85" s="56"/>
+      <c r="Q85" s="56"/>
+      <c r="R85" s="56"/>
+      <c r="S85" s="56"/>
+      <c r="T85" s="56"/>
+      <c r="U85" s="56"/>
+      <c r="V85" s="56"/>
       <c r="W85" s="21"/>
       <c r="X85" s="21"/>
       <c r="Y85" s="21"/>
@@ -8583,31 +8578,31 @@
       <c r="AE85" s="21"/>
       <c r="AF85" s="21"/>
     </row>
-    <row r="86" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="41" t="s">
+    <row r="86" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B86" s="41"/>
-      <c r="C86" s="41"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="41"/>
-      <c r="F86" s="41"/>
-      <c r="G86" s="41"/>
-      <c r="H86" s="41"/>
-      <c r="I86" s="41"/>
-      <c r="J86" s="41"/>
-      <c r="K86" s="41"/>
-      <c r="L86" s="41"/>
-      <c r="M86" s="41"/>
-      <c r="N86" s="41"/>
-      <c r="O86" s="41"/>
-      <c r="P86" s="41"/>
-      <c r="Q86" s="41"/>
-      <c r="R86" s="41"/>
-      <c r="S86" s="41"/>
-      <c r="T86" s="41"/>
-      <c r="U86" s="41"/>
-      <c r="V86" s="41"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="56"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="56"/>
+      <c r="I86" s="56"/>
+      <c r="J86" s="56"/>
+      <c r="K86" s="56"/>
+      <c r="L86" s="56"/>
+      <c r="M86" s="56"/>
+      <c r="N86" s="56"/>
+      <c r="O86" s="56"/>
+      <c r="P86" s="56"/>
+      <c r="Q86" s="56"/>
+      <c r="R86" s="56"/>
+      <c r="S86" s="56"/>
+      <c r="T86" s="56"/>
+      <c r="U86" s="56"/>
+      <c r="V86" s="56"/>
       <c r="W86" s="21"/>
       <c r="X86" s="21"/>
       <c r="Y86" s="21"/>
@@ -8619,31 +8614,31 @@
       <c r="AE86" s="21"/>
       <c r="AF86" s="21"/>
     </row>
-    <row r="87" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="41" t="s">
+    <row r="87" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="B87" s="41"/>
-      <c r="C87" s="41"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="41"/>
-      <c r="F87" s="41"/>
-      <c r="G87" s="41"/>
-      <c r="H87" s="41"/>
-      <c r="I87" s="41"/>
-      <c r="J87" s="41"/>
-      <c r="K87" s="41"/>
-      <c r="L87" s="41"/>
-      <c r="M87" s="41"/>
-      <c r="N87" s="41"/>
-      <c r="O87" s="41"/>
-      <c r="P87" s="41"/>
-      <c r="Q87" s="41"/>
-      <c r="R87" s="41"/>
-      <c r="S87" s="41"/>
-      <c r="T87" s="41"/>
-      <c r="U87" s="41"/>
-      <c r="V87" s="41"/>
+      <c r="B87" s="56"/>
+      <c r="C87" s="56"/>
+      <c r="D87" s="56"/>
+      <c r="E87" s="56"/>
+      <c r="F87" s="56"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="56"/>
+      <c r="K87" s="56"/>
+      <c r="L87" s="56"/>
+      <c r="M87" s="56"/>
+      <c r="N87" s="56"/>
+      <c r="O87" s="56"/>
+      <c r="P87" s="56"/>
+      <c r="Q87" s="56"/>
+      <c r="R87" s="56"/>
+      <c r="S87" s="56"/>
+      <c r="T87" s="56"/>
+      <c r="U87" s="56"/>
+      <c r="V87" s="56"/>
       <c r="W87" s="21"/>
       <c r="X87" s="21"/>
       <c r="Y87" s="21"/>
@@ -8655,31 +8650,31 @@
       <c r="AE87" s="21"/>
       <c r="AF87" s="21"/>
     </row>
-    <row r="88" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="39" t="s">
+    <row r="88" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="39"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="39"/>
-      <c r="F88" s="39"/>
-      <c r="G88" s="39"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="39"/>
-      <c r="K88" s="39"/>
-      <c r="L88" s="39"/>
-      <c r="M88" s="39"/>
-      <c r="N88" s="39"/>
-      <c r="O88" s="39"/>
-      <c r="P88" s="39"/>
-      <c r="Q88" s="39"/>
-      <c r="R88" s="39"/>
-      <c r="S88" s="39"/>
-      <c r="T88" s="39"/>
-      <c r="U88" s="39"/>
-      <c r="V88" s="39"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="57"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="57"/>
+      <c r="G88" s="57"/>
+      <c r="H88" s="57"/>
+      <c r="I88" s="57"/>
+      <c r="J88" s="57"/>
+      <c r="K88" s="57"/>
+      <c r="L88" s="57"/>
+      <c r="M88" s="57"/>
+      <c r="N88" s="57"/>
+      <c r="O88" s="57"/>
+      <c r="P88" s="57"/>
+      <c r="Q88" s="57"/>
+      <c r="R88" s="57"/>
+      <c r="S88" s="57"/>
+      <c r="T88" s="57"/>
+      <c r="U88" s="57"/>
+      <c r="V88" s="57"/>
       <c r="W88" s="22"/>
       <c r="X88" s="22"/>
       <c r="Y88" s="22"/>
@@ -8691,31 +8686,31 @@
       <c r="AE88" s="22"/>
       <c r="AF88" s="22"/>
     </row>
-    <row r="89" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="40" t="s">
+    <row r="89" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B89" s="40"/>
-      <c r="C89" s="40"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="40"/>
-      <c r="F89" s="40"/>
-      <c r="G89" s="40"/>
-      <c r="H89" s="40"/>
-      <c r="I89" s="40"/>
-      <c r="J89" s="40"/>
-      <c r="K89" s="40"/>
-      <c r="L89" s="40"/>
-      <c r="M89" s="40"/>
-      <c r="N89" s="40"/>
-      <c r="O89" s="40"/>
-      <c r="P89" s="40"/>
-      <c r="Q89" s="40"/>
-      <c r="R89" s="40"/>
-      <c r="S89" s="40"/>
-      <c r="T89" s="40"/>
-      <c r="U89" s="40"/>
-      <c r="V89" s="40"/>
+      <c r="B89" s="62"/>
+      <c r="C89" s="62"/>
+      <c r="D89" s="62"/>
+      <c r="E89" s="62"/>
+      <c r="F89" s="62"/>
+      <c r="G89" s="62"/>
+      <c r="H89" s="62"/>
+      <c r="I89" s="62"/>
+      <c r="J89" s="62"/>
+      <c r="K89" s="62"/>
+      <c r="L89" s="62"/>
+      <c r="M89" s="62"/>
+      <c r="N89" s="62"/>
+      <c r="O89" s="62"/>
+      <c r="P89" s="62"/>
+      <c r="Q89" s="62"/>
+      <c r="R89" s="62"/>
+      <c r="S89" s="62"/>
+      <c r="T89" s="62"/>
+      <c r="U89" s="62"/>
+      <c r="V89" s="62"/>
       <c r="W89" s="22"/>
       <c r="X89" s="22"/>
       <c r="Y89" s="22"/>
@@ -8727,31 +8722,31 @@
       <c r="AE89" s="21"/>
       <c r="AF89" s="21"/>
     </row>
-    <row r="90" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="41" t="s">
+    <row r="90" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B90" s="41"/>
-      <c r="C90" s="41"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="41"/>
-      <c r="F90" s="41"/>
-      <c r="G90" s="41"/>
-      <c r="H90" s="41"/>
-      <c r="I90" s="41"/>
-      <c r="J90" s="41"/>
-      <c r="K90" s="41"/>
-      <c r="L90" s="41"/>
-      <c r="M90" s="41"/>
-      <c r="N90" s="41"/>
-      <c r="O90" s="41"/>
-      <c r="P90" s="41"/>
-      <c r="Q90" s="41"/>
-      <c r="R90" s="41"/>
-      <c r="S90" s="41"/>
-      <c r="T90" s="41"/>
-      <c r="U90" s="41"/>
-      <c r="V90" s="41"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="56"/>
+      <c r="I90" s="56"/>
+      <c r="J90" s="56"/>
+      <c r="K90" s="56"/>
+      <c r="L90" s="56"/>
+      <c r="M90" s="56"/>
+      <c r="N90" s="56"/>
+      <c r="O90" s="56"/>
+      <c r="P90" s="56"/>
+      <c r="Q90" s="56"/>
+      <c r="R90" s="56"/>
+      <c r="S90" s="56"/>
+      <c r="T90" s="56"/>
+      <c r="U90" s="56"/>
+      <c r="V90" s="56"/>
       <c r="W90" s="21"/>
       <c r="X90" s="21"/>
       <c r="Y90" s="21"/>
@@ -8763,31 +8758,31 @@
       <c r="AE90" s="21"/>
       <c r="AF90" s="21"/>
     </row>
-    <row r="91" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="41" t="s">
+    <row r="91" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="B91" s="41"/>
-      <c r="C91" s="41"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="41"/>
-      <c r="F91" s="41"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="41"/>
-      <c r="I91" s="41"/>
-      <c r="J91" s="41"/>
-      <c r="K91" s="41"/>
-      <c r="L91" s="41"/>
-      <c r="M91" s="41"/>
-      <c r="N91" s="41"/>
-      <c r="O91" s="41"/>
-      <c r="P91" s="41"/>
-      <c r="Q91" s="41"/>
-      <c r="R91" s="41"/>
-      <c r="S91" s="41"/>
-      <c r="T91" s="41"/>
-      <c r="U91" s="41"/>
-      <c r="V91" s="41"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="56"/>
+      <c r="D91" s="56"/>
+      <c r="E91" s="56"/>
+      <c r="F91" s="56"/>
+      <c r="G91" s="56"/>
+      <c r="H91" s="56"/>
+      <c r="I91" s="56"/>
+      <c r="J91" s="56"/>
+      <c r="K91" s="56"/>
+      <c r="L91" s="56"/>
+      <c r="M91" s="56"/>
+      <c r="N91" s="56"/>
+      <c r="O91" s="56"/>
+      <c r="P91" s="56"/>
+      <c r="Q91" s="56"/>
+      <c r="R91" s="56"/>
+      <c r="S91" s="56"/>
+      <c r="T91" s="56"/>
+      <c r="U91" s="56"/>
+      <c r="V91" s="56"/>
       <c r="W91" s="21"/>
       <c r="X91" s="21"/>
       <c r="Y91" s="21"/>
@@ -8799,31 +8794,31 @@
       <c r="AE91" s="21"/>
       <c r="AF91" s="21"/>
     </row>
-    <row r="92" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="41" t="s">
+    <row r="92" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="B92" s="41"/>
-      <c r="C92" s="41"/>
-      <c r="D92" s="41"/>
-      <c r="E92" s="41"/>
-      <c r="F92" s="41"/>
-      <c r="G92" s="41"/>
-      <c r="H92" s="41"/>
-      <c r="I92" s="41"/>
-      <c r="J92" s="41"/>
-      <c r="K92" s="41"/>
-      <c r="L92" s="41"/>
-      <c r="M92" s="41"/>
-      <c r="N92" s="41"/>
-      <c r="O92" s="41"/>
-      <c r="P92" s="41"/>
-      <c r="Q92" s="41"/>
-      <c r="R92" s="41"/>
-      <c r="S92" s="41"/>
-      <c r="T92" s="41"/>
-      <c r="U92" s="41"/>
-      <c r="V92" s="41"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="56"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="56"/>
+      <c r="G92" s="56"/>
+      <c r="H92" s="56"/>
+      <c r="I92" s="56"/>
+      <c r="J92" s="56"/>
+      <c r="K92" s="56"/>
+      <c r="L92" s="56"/>
+      <c r="M92" s="56"/>
+      <c r="N92" s="56"/>
+      <c r="O92" s="56"/>
+      <c r="P92" s="56"/>
+      <c r="Q92" s="56"/>
+      <c r="R92" s="56"/>
+      <c r="S92" s="56"/>
+      <c r="T92" s="56"/>
+      <c r="U92" s="56"/>
+      <c r="V92" s="56"/>
       <c r="W92" s="21"/>
       <c r="X92" s="21"/>
       <c r="Y92" s="21"/>
@@ -8835,31 +8830,31 @@
       <c r="AE92" s="22"/>
       <c r="AF92" s="22"/>
     </row>
-    <row r="93" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="40" t="s">
+    <row r="93" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B93" s="40"/>
-      <c r="C93" s="40"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="40"/>
-      <c r="F93" s="40"/>
-      <c r="G93" s="40"/>
-      <c r="H93" s="40"/>
-      <c r="I93" s="40"/>
-      <c r="J93" s="40"/>
-      <c r="K93" s="40"/>
-      <c r="L93" s="40"/>
-      <c r="M93" s="40"/>
-      <c r="N93" s="40"/>
-      <c r="O93" s="40"/>
-      <c r="P93" s="40"/>
-      <c r="Q93" s="40"/>
-      <c r="R93" s="40"/>
-      <c r="S93" s="40"/>
-      <c r="T93" s="40"/>
-      <c r="U93" s="40"/>
-      <c r="V93" s="40"/>
+      <c r="B93" s="62"/>
+      <c r="C93" s="62"/>
+      <c r="D93" s="62"/>
+      <c r="E93" s="62"/>
+      <c r="F93" s="62"/>
+      <c r="G93" s="62"/>
+      <c r="H93" s="62"/>
+      <c r="I93" s="62"/>
+      <c r="J93" s="62"/>
+      <c r="K93" s="62"/>
+      <c r="L93" s="62"/>
+      <c r="M93" s="62"/>
+      <c r="N93" s="62"/>
+      <c r="O93" s="62"/>
+      <c r="P93" s="62"/>
+      <c r="Q93" s="62"/>
+      <c r="R93" s="62"/>
+      <c r="S93" s="62"/>
+      <c r="T93" s="62"/>
+      <c r="U93" s="62"/>
+      <c r="V93" s="62"/>
       <c r="W93" s="22"/>
       <c r="X93" s="22"/>
       <c r="Y93" s="22"/>
@@ -8871,31 +8866,31 @@
       <c r="AE93" s="21"/>
       <c r="AF93" s="21"/>
     </row>
-    <row r="94" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="41" t="s">
+    <row r="94" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B94" s="41"/>
-      <c r="C94" s="41"/>
-      <c r="D94" s="41"/>
-      <c r="E94" s="41"/>
-      <c r="F94" s="41"/>
-      <c r="G94" s="41"/>
-      <c r="H94" s="41"/>
-      <c r="I94" s="41"/>
-      <c r="J94" s="41"/>
-      <c r="K94" s="41"/>
-      <c r="L94" s="41"/>
-      <c r="M94" s="41"/>
-      <c r="N94" s="41"/>
-      <c r="O94" s="41"/>
-      <c r="P94" s="41"/>
-      <c r="Q94" s="41"/>
-      <c r="R94" s="41"/>
-      <c r="S94" s="41"/>
-      <c r="T94" s="41"/>
-      <c r="U94" s="41"/>
-      <c r="V94" s="41"/>
+      <c r="B94" s="56"/>
+      <c r="C94" s="56"/>
+      <c r="D94" s="56"/>
+      <c r="E94" s="56"/>
+      <c r="F94" s="56"/>
+      <c r="G94" s="56"/>
+      <c r="H94" s="56"/>
+      <c r="I94" s="56"/>
+      <c r="J94" s="56"/>
+      <c r="K94" s="56"/>
+      <c r="L94" s="56"/>
+      <c r="M94" s="56"/>
+      <c r="N94" s="56"/>
+      <c r="O94" s="56"/>
+      <c r="P94" s="56"/>
+      <c r="Q94" s="56"/>
+      <c r="R94" s="56"/>
+      <c r="S94" s="56"/>
+      <c r="T94" s="56"/>
+      <c r="U94" s="56"/>
+      <c r="V94" s="56"/>
       <c r="W94" s="21"/>
       <c r="X94" s="21"/>
       <c r="Y94" s="21"/>
@@ -8907,31 +8902,31 @@
       <c r="AE94" s="21"/>
       <c r="AF94" s="21"/>
     </row>
-    <row r="95" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="41" t="s">
+    <row r="95" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="B95" s="41"/>
-      <c r="C95" s="41"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="41"/>
-      <c r="F95" s="41"/>
-      <c r="G95" s="41"/>
-      <c r="H95" s="41"/>
-      <c r="I95" s="41"/>
-      <c r="J95" s="41"/>
-      <c r="K95" s="41"/>
-      <c r="L95" s="41"/>
-      <c r="M95" s="41"/>
-      <c r="N95" s="41"/>
-      <c r="O95" s="41"/>
-      <c r="P95" s="41"/>
-      <c r="Q95" s="41"/>
-      <c r="R95" s="41"/>
-      <c r="S95" s="41"/>
-      <c r="T95" s="41"/>
-      <c r="U95" s="41"/>
-      <c r="V95" s="41"/>
+      <c r="B95" s="56"/>
+      <c r="C95" s="56"/>
+      <c r="D95" s="56"/>
+      <c r="E95" s="56"/>
+      <c r="F95" s="56"/>
+      <c r="G95" s="56"/>
+      <c r="H95" s="56"/>
+      <c r="I95" s="56"/>
+      <c r="J95" s="56"/>
+      <c r="K95" s="56"/>
+      <c r="L95" s="56"/>
+      <c r="M95" s="56"/>
+      <c r="N95" s="56"/>
+      <c r="O95" s="56"/>
+      <c r="P95" s="56"/>
+      <c r="Q95" s="56"/>
+      <c r="R95" s="56"/>
+      <c r="S95" s="56"/>
+      <c r="T95" s="56"/>
+      <c r="U95" s="56"/>
+      <c r="V95" s="56"/>
       <c r="W95" s="21"/>
       <c r="X95" s="21"/>
       <c r="Y95" s="21"/>
@@ -8943,31 +8938,31 @@
       <c r="AE95" s="22"/>
       <c r="AF95" s="22"/>
     </row>
-    <row r="96" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="39" t="s">
+    <row r="96" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B96" s="39"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="39"/>
-      <c r="F96" s="39"/>
-      <c r="G96" s="39"/>
-      <c r="H96" s="39"/>
-      <c r="I96" s="39"/>
-      <c r="J96" s="39"/>
-      <c r="K96" s="39"/>
-      <c r="L96" s="39"/>
-      <c r="M96" s="39"/>
-      <c r="N96" s="39"/>
-      <c r="O96" s="39"/>
-      <c r="P96" s="39"/>
-      <c r="Q96" s="39"/>
-      <c r="R96" s="39"/>
-      <c r="S96" s="39"/>
-      <c r="T96" s="39"/>
-      <c r="U96" s="39"/>
-      <c r="V96" s="39"/>
+      <c r="B96" s="57"/>
+      <c r="C96" s="57"/>
+      <c r="D96" s="57"/>
+      <c r="E96" s="57"/>
+      <c r="F96" s="57"/>
+      <c r="G96" s="57"/>
+      <c r="H96" s="57"/>
+      <c r="I96" s="57"/>
+      <c r="J96" s="57"/>
+      <c r="K96" s="57"/>
+      <c r="L96" s="57"/>
+      <c r="M96" s="57"/>
+      <c r="N96" s="57"/>
+      <c r="O96" s="57"/>
+      <c r="P96" s="57"/>
+      <c r="Q96" s="57"/>
+      <c r="R96" s="57"/>
+      <c r="S96" s="57"/>
+      <c r="T96" s="57"/>
+      <c r="U96" s="57"/>
+      <c r="V96" s="57"/>
       <c r="W96" s="22"/>
       <c r="X96" s="22"/>
       <c r="Y96" s="22"/>
@@ -8979,31 +8974,31 @@
       <c r="AE96" s="21"/>
       <c r="AF96" s="21"/>
     </row>
-    <row r="97" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="41" t="s">
+    <row r="97" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B97" s="41"/>
-      <c r="C97" s="41"/>
-      <c r="D97" s="41"/>
-      <c r="E97" s="41"/>
-      <c r="F97" s="41"/>
-      <c r="G97" s="41"/>
-      <c r="H97" s="41"/>
-      <c r="I97" s="41"/>
-      <c r="J97" s="41"/>
-      <c r="K97" s="41"/>
-      <c r="L97" s="41"/>
-      <c r="M97" s="41"/>
-      <c r="N97" s="41"/>
-      <c r="O97" s="41"/>
-      <c r="P97" s="41"/>
-      <c r="Q97" s="41"/>
-      <c r="R97" s="41"/>
-      <c r="S97" s="41"/>
-      <c r="T97" s="41"/>
-      <c r="U97" s="41"/>
-      <c r="V97" s="41"/>
+      <c r="B97" s="56"/>
+      <c r="C97" s="56"/>
+      <c r="D97" s="56"/>
+      <c r="E97" s="56"/>
+      <c r="F97" s="56"/>
+      <c r="G97" s="56"/>
+      <c r="H97" s="56"/>
+      <c r="I97" s="56"/>
+      <c r="J97" s="56"/>
+      <c r="K97" s="56"/>
+      <c r="L97" s="56"/>
+      <c r="M97" s="56"/>
+      <c r="N97" s="56"/>
+      <c r="O97" s="56"/>
+      <c r="P97" s="56"/>
+      <c r="Q97" s="56"/>
+      <c r="R97" s="56"/>
+      <c r="S97" s="56"/>
+      <c r="T97" s="56"/>
+      <c r="U97" s="56"/>
+      <c r="V97" s="56"/>
       <c r="W97" s="21"/>
       <c r="X97" s="21"/>
       <c r="Y97" s="21"/>
@@ -9015,31 +9010,31 @@
       <c r="AE97" s="21"/>
       <c r="AF97" s="21"/>
     </row>
-    <row r="98" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="41" t="s">
+    <row r="98" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B98" s="41"/>
-      <c r="C98" s="41"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="41"/>
-      <c r="F98" s="41"/>
-      <c r="G98" s="41"/>
-      <c r="H98" s="41"/>
-      <c r="I98" s="41"/>
-      <c r="J98" s="41"/>
-      <c r="K98" s="41"/>
-      <c r="L98" s="41"/>
-      <c r="M98" s="41"/>
-      <c r="N98" s="41"/>
-      <c r="O98" s="41"/>
-      <c r="P98" s="41"/>
-      <c r="Q98" s="41"/>
-      <c r="R98" s="41"/>
-      <c r="S98" s="41"/>
-      <c r="T98" s="41"/>
-      <c r="U98" s="41"/>
-      <c r="V98" s="41"/>
+      <c r="B98" s="56"/>
+      <c r="C98" s="56"/>
+      <c r="D98" s="56"/>
+      <c r="E98" s="56"/>
+      <c r="F98" s="56"/>
+      <c r="G98" s="56"/>
+      <c r="H98" s="56"/>
+      <c r="I98" s="56"/>
+      <c r="J98" s="56"/>
+      <c r="K98" s="56"/>
+      <c r="L98" s="56"/>
+      <c r="M98" s="56"/>
+      <c r="N98" s="56"/>
+      <c r="O98" s="56"/>
+      <c r="P98" s="56"/>
+      <c r="Q98" s="56"/>
+      <c r="R98" s="56"/>
+      <c r="S98" s="56"/>
+      <c r="T98" s="56"/>
+      <c r="U98" s="56"/>
+      <c r="V98" s="56"/>
       <c r="W98" s="21"/>
       <c r="X98" s="21"/>
       <c r="Y98" s="21"/>
@@ -9051,31 +9046,31 @@
       <c r="AE98" s="22"/>
       <c r="AF98" s="22"/>
     </row>
-    <row r="99" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="39" t="s">
+    <row r="99" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B99" s="39"/>
-      <c r="C99" s="39"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="39"/>
-      <c r="F99" s="39"/>
-      <c r="G99" s="39"/>
-      <c r="H99" s="39"/>
-      <c r="I99" s="39"/>
-      <c r="J99" s="39"/>
-      <c r="K99" s="39"/>
-      <c r="L99" s="39"/>
-      <c r="M99" s="39"/>
-      <c r="N99" s="39"/>
-      <c r="O99" s="39"/>
-      <c r="P99" s="39"/>
-      <c r="Q99" s="39"/>
-      <c r="R99" s="39"/>
-      <c r="S99" s="39"/>
-      <c r="T99" s="39"/>
-      <c r="U99" s="39"/>
-      <c r="V99" s="39"/>
+      <c r="B99" s="57"/>
+      <c r="C99" s="57"/>
+      <c r="D99" s="57"/>
+      <c r="E99" s="57"/>
+      <c r="F99" s="57"/>
+      <c r="G99" s="57"/>
+      <c r="H99" s="57"/>
+      <c r="I99" s="57"/>
+      <c r="J99" s="57"/>
+      <c r="K99" s="57"/>
+      <c r="L99" s="57"/>
+      <c r="M99" s="57"/>
+      <c r="N99" s="57"/>
+      <c r="O99" s="57"/>
+      <c r="P99" s="57"/>
+      <c r="Q99" s="57"/>
+      <c r="R99" s="57"/>
+      <c r="S99" s="57"/>
+      <c r="T99" s="57"/>
+      <c r="U99" s="57"/>
+      <c r="V99" s="57"/>
       <c r="W99" s="22"/>
       <c r="X99" s="22"/>
       <c r="Y99" s="22"/>
@@ -9087,31 +9082,31 @@
       <c r="AE99" s="22"/>
       <c r="AF99" s="22"/>
     </row>
-    <row r="100" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="38" t="s">
+    <row r="100" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B100" s="38"/>
-      <c r="C100" s="38"/>
-      <c r="D100" s="38"/>
-      <c r="E100" s="38"/>
-      <c r="F100" s="38"/>
-      <c r="G100" s="38"/>
-      <c r="H100" s="38"/>
-      <c r="I100" s="38"/>
-      <c r="J100" s="38"/>
-      <c r="K100" s="38"/>
-      <c r="L100" s="38"/>
-      <c r="M100" s="38"/>
-      <c r="N100" s="38"/>
-      <c r="O100" s="38"/>
-      <c r="P100" s="38"/>
-      <c r="Q100" s="38"/>
-      <c r="R100" s="38"/>
-      <c r="S100" s="38"/>
-      <c r="T100" s="38"/>
-      <c r="U100" s="38"/>
-      <c r="V100" s="38"/>
+      <c r="B100" s="64"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="64"/>
+      <c r="E100" s="64"/>
+      <c r="F100" s="64"/>
+      <c r="G100" s="64"/>
+      <c r="H100" s="64"/>
+      <c r="I100" s="64"/>
+      <c r="J100" s="64"/>
+      <c r="K100" s="64"/>
+      <c r="L100" s="64"/>
+      <c r="M100" s="64"/>
+      <c r="N100" s="64"/>
+      <c r="O100" s="64"/>
+      <c r="P100" s="64"/>
+      <c r="Q100" s="64"/>
+      <c r="R100" s="64"/>
+      <c r="S100" s="64"/>
+      <c r="T100" s="64"/>
+      <c r="U100" s="64"/>
+      <c r="V100" s="64"/>
       <c r="W100" s="22"/>
       <c r="X100" s="22"/>
       <c r="Y100" s="22"/>
@@ -9123,31 +9118,31 @@
       <c r="AE100" s="22"/>
       <c r="AF100" s="22"/>
     </row>
-    <row r="101" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="42" t="s">
+    <row r="101" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="42"/>
-      <c r="C101" s="42"/>
-      <c r="D101" s="42"/>
-      <c r="E101" s="42"/>
-      <c r="F101" s="42"/>
-      <c r="G101" s="42"/>
-      <c r="H101" s="42"/>
-      <c r="I101" s="42"/>
-      <c r="J101" s="42"/>
-      <c r="K101" s="42"/>
-      <c r="L101" s="42"/>
-      <c r="M101" s="42"/>
-      <c r="N101" s="42"/>
-      <c r="O101" s="42"/>
-      <c r="P101" s="42"/>
-      <c r="Q101" s="42"/>
-      <c r="R101" s="42"/>
-      <c r="S101" s="42"/>
-      <c r="T101" s="42"/>
-      <c r="U101" s="42"/>
-      <c r="V101" s="42"/>
+      <c r="B101" s="61"/>
+      <c r="C101" s="61"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="61"/>
+      <c r="F101" s="61"/>
+      <c r="G101" s="61"/>
+      <c r="H101" s="61"/>
+      <c r="I101" s="61"/>
+      <c r="J101" s="61"/>
+      <c r="K101" s="61"/>
+      <c r="L101" s="61"/>
+      <c r="M101" s="61"/>
+      <c r="N101" s="61"/>
+      <c r="O101" s="61"/>
+      <c r="P101" s="61"/>
+      <c r="Q101" s="61"/>
+      <c r="R101" s="61"/>
+      <c r="S101" s="61"/>
+      <c r="T101" s="61"/>
+      <c r="U101" s="61"/>
+      <c r="V101" s="61"/>
       <c r="W101" s="22"/>
       <c r="X101" s="22"/>
       <c r="Y101" s="22"/>
@@ -9159,31 +9154,31 @@
       <c r="AE101" s="22"/>
       <c r="AF101" s="22"/>
     </row>
-    <row r="102" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="40" t="s">
+    <row r="102" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B102" s="40"/>
-      <c r="C102" s="40"/>
-      <c r="D102" s="40"/>
-      <c r="E102" s="40"/>
-      <c r="F102" s="40"/>
-      <c r="G102" s="40"/>
-      <c r="H102" s="40"/>
-      <c r="I102" s="40"/>
-      <c r="J102" s="40"/>
-      <c r="K102" s="40"/>
-      <c r="L102" s="40"/>
-      <c r="M102" s="40"/>
-      <c r="N102" s="40"/>
-      <c r="O102" s="40"/>
-      <c r="P102" s="40"/>
-      <c r="Q102" s="40"/>
-      <c r="R102" s="40"/>
-      <c r="S102" s="40"/>
-      <c r="T102" s="40"/>
-      <c r="U102" s="40"/>
-      <c r="V102" s="40"/>
+      <c r="B102" s="62"/>
+      <c r="C102" s="62"/>
+      <c r="D102" s="62"/>
+      <c r="E102" s="62"/>
+      <c r="F102" s="62"/>
+      <c r="G102" s="62"/>
+      <c r="H102" s="62"/>
+      <c r="I102" s="62"/>
+      <c r="J102" s="62"/>
+      <c r="K102" s="62"/>
+      <c r="L102" s="62"/>
+      <c r="M102" s="62"/>
+      <c r="N102" s="62"/>
+      <c r="O102" s="62"/>
+      <c r="P102" s="62"/>
+      <c r="Q102" s="62"/>
+      <c r="R102" s="62"/>
+      <c r="S102" s="62"/>
+      <c r="T102" s="62"/>
+      <c r="U102" s="62"/>
+      <c r="V102" s="62"/>
       <c r="W102" s="22"/>
       <c r="X102" s="22"/>
       <c r="Y102" s="22"/>
@@ -9195,31 +9190,31 @@
       <c r="AE102" s="22"/>
       <c r="AF102" s="22"/>
     </row>
-    <row r="103" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="42" t="s">
+    <row r="103" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="B103" s="42"/>
-      <c r="C103" s="42"/>
-      <c r="D103" s="42"/>
-      <c r="E103" s="42"/>
-      <c r="F103" s="42"/>
-      <c r="G103" s="42"/>
-      <c r="H103" s="42"/>
-      <c r="I103" s="42"/>
-      <c r="J103" s="42"/>
-      <c r="K103" s="42"/>
-      <c r="L103" s="42"/>
-      <c r="M103" s="42"/>
-      <c r="N103" s="42"/>
-      <c r="O103" s="42"/>
-      <c r="P103" s="42"/>
-      <c r="Q103" s="42"/>
-      <c r="R103" s="42"/>
-      <c r="S103" s="42"/>
-      <c r="T103" s="42"/>
-      <c r="U103" s="42"/>
-      <c r="V103" s="42"/>
+      <c r="B103" s="61"/>
+      <c r="C103" s="61"/>
+      <c r="D103" s="61"/>
+      <c r="E103" s="61"/>
+      <c r="F103" s="61"/>
+      <c r="G103" s="61"/>
+      <c r="H103" s="61"/>
+      <c r="I103" s="61"/>
+      <c r="J103" s="61"/>
+      <c r="K103" s="61"/>
+      <c r="L103" s="61"/>
+      <c r="M103" s="61"/>
+      <c r="N103" s="61"/>
+      <c r="O103" s="61"/>
+      <c r="P103" s="61"/>
+      <c r="Q103" s="61"/>
+      <c r="R103" s="61"/>
+      <c r="S103" s="61"/>
+      <c r="T103" s="61"/>
+      <c r="U103" s="61"/>
+      <c r="V103" s="61"/>
       <c r="W103" s="22"/>
       <c r="X103" s="22"/>
       <c r="Y103" s="22"/>
@@ -9231,31 +9226,31 @@
       <c r="AE103" s="22"/>
       <c r="AF103" s="22"/>
     </row>
-    <row r="104" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="43" t="s">
+    <row r="104" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="B104" s="43"/>
-      <c r="C104" s="43"/>
-      <c r="D104" s="43"/>
-      <c r="E104" s="43"/>
-      <c r="F104" s="43"/>
-      <c r="G104" s="43"/>
-      <c r="H104" s="43"/>
-      <c r="I104" s="43"/>
-      <c r="J104" s="43"/>
-      <c r="K104" s="43"/>
-      <c r="L104" s="43"/>
-      <c r="M104" s="43"/>
-      <c r="N104" s="43"/>
-      <c r="O104" s="43"/>
-      <c r="P104" s="43"/>
-      <c r="Q104" s="43"/>
-      <c r="R104" s="43"/>
-      <c r="S104" s="43"/>
-      <c r="T104" s="43"/>
-      <c r="U104" s="43"/>
-      <c r="V104" s="43"/>
+      <c r="B104" s="63"/>
+      <c r="C104" s="63"/>
+      <c r="D104" s="63"/>
+      <c r="E104" s="63"/>
+      <c r="F104" s="63"/>
+      <c r="G104" s="63"/>
+      <c r="H104" s="63"/>
+      <c r="I104" s="63"/>
+      <c r="J104" s="63"/>
+      <c r="K104" s="63"/>
+      <c r="L104" s="63"/>
+      <c r="M104" s="63"/>
+      <c r="N104" s="63"/>
+      <c r="O104" s="63"/>
+      <c r="P104" s="63"/>
+      <c r="Q104" s="63"/>
+      <c r="R104" s="63"/>
+      <c r="S104" s="63"/>
+      <c r="T104" s="63"/>
+      <c r="U104" s="63"/>
+      <c r="V104" s="63"/>
       <c r="W104" s="22"/>
       <c r="X104" s="22"/>
       <c r="Y104" s="22"/>
@@ -9267,31 +9262,31 @@
       <c r="AE104" s="21"/>
       <c r="AF104" s="21"/>
     </row>
-    <row r="105" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="39" t="s">
+    <row r="105" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="B105" s="39"/>
-      <c r="C105" s="39"/>
-      <c r="D105" s="39"/>
-      <c r="E105" s="39"/>
-      <c r="F105" s="39"/>
-      <c r="G105" s="39"/>
-      <c r="H105" s="39"/>
-      <c r="I105" s="39"/>
-      <c r="J105" s="39"/>
-      <c r="K105" s="39"/>
-      <c r="L105" s="39"/>
-      <c r="M105" s="39"/>
-      <c r="N105" s="39"/>
-      <c r="O105" s="39"/>
-      <c r="P105" s="39"/>
-      <c r="Q105" s="39"/>
-      <c r="R105" s="39"/>
-      <c r="S105" s="39"/>
-      <c r="T105" s="39"/>
-      <c r="U105" s="39"/>
-      <c r="V105" s="39"/>
+      <c r="B105" s="57"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="57"/>
+      <c r="E105" s="57"/>
+      <c r="F105" s="57"/>
+      <c r="G105" s="57"/>
+      <c r="H105" s="57"/>
+      <c r="I105" s="57"/>
+      <c r="J105" s="57"/>
+      <c r="K105" s="57"/>
+      <c r="L105" s="57"/>
+      <c r="M105" s="57"/>
+      <c r="N105" s="57"/>
+      <c r="O105" s="57"/>
+      <c r="P105" s="57"/>
+      <c r="Q105" s="57"/>
+      <c r="R105" s="57"/>
+      <c r="S105" s="57"/>
+      <c r="T105" s="57"/>
+      <c r="U105" s="57"/>
+      <c r="V105" s="57"/>
       <c r="W105" s="21"/>
       <c r="X105" s="21"/>
       <c r="Y105" s="21"/>
@@ -9303,31 +9298,31 @@
       <c r="AE105" s="22"/>
       <c r="AF105" s="22"/>
     </row>
-    <row r="106" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="40" t="s">
+    <row r="106" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B106" s="40"/>
-      <c r="C106" s="40"/>
-      <c r="D106" s="40"/>
-      <c r="E106" s="40"/>
-      <c r="F106" s="40"/>
-      <c r="G106" s="40"/>
-      <c r="H106" s="40"/>
-      <c r="I106" s="40"/>
-      <c r="J106" s="40"/>
-      <c r="K106" s="40"/>
-      <c r="L106" s="40"/>
-      <c r="M106" s="40"/>
-      <c r="N106" s="40"/>
-      <c r="O106" s="40"/>
-      <c r="P106" s="40"/>
-      <c r="Q106" s="40"/>
-      <c r="R106" s="40"/>
-      <c r="S106" s="40"/>
-      <c r="T106" s="40"/>
-      <c r="U106" s="40"/>
-      <c r="V106" s="40"/>
+      <c r="B106" s="62"/>
+      <c r="C106" s="62"/>
+      <c r="D106" s="62"/>
+      <c r="E106" s="62"/>
+      <c r="F106" s="62"/>
+      <c r="G106" s="62"/>
+      <c r="H106" s="62"/>
+      <c r="I106" s="62"/>
+      <c r="J106" s="62"/>
+      <c r="K106" s="62"/>
+      <c r="L106" s="62"/>
+      <c r="M106" s="62"/>
+      <c r="N106" s="62"/>
+      <c r="O106" s="62"/>
+      <c r="P106" s="62"/>
+      <c r="Q106" s="62"/>
+      <c r="R106" s="62"/>
+      <c r="S106" s="62"/>
+      <c r="T106" s="62"/>
+      <c r="U106" s="62"/>
+      <c r="V106" s="62"/>
       <c r="W106" s="22"/>
       <c r="X106" s="22"/>
       <c r="Y106" s="22"/>
@@ -9339,38 +9334,38 @@
       <c r="AE106" s="21"/>
       <c r="AF106" s="21"/>
     </row>
-    <row r="107" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="41" t="s">
+    <row r="107" spans="1:32" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="B107" s="41"/>
-      <c r="C107" s="41"/>
-      <c r="D107" s="41"/>
-      <c r="E107" s="41"/>
-      <c r="F107" s="41"/>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
-      <c r="I107" s="41"/>
-      <c r="J107" s="41"/>
-      <c r="K107" s="41"/>
-      <c r="L107" s="41"/>
-      <c r="M107" s="41"/>
-      <c r="N107" s="41"/>
-      <c r="O107" s="41"/>
-      <c r="P107" s="41"/>
-      <c r="Q107" s="41"/>
-      <c r="R107" s="41"/>
-      <c r="S107" s="41"/>
-      <c r="T107" s="41"/>
-      <c r="U107" s="41"/>
-      <c r="V107" s="41"/>
+      <c r="B107" s="56"/>
+      <c r="C107" s="56"/>
+      <c r="D107" s="56"/>
+      <c r="E107" s="56"/>
+      <c r="F107" s="56"/>
+      <c r="G107" s="56"/>
+      <c r="H107" s="56"/>
+      <c r="I107" s="56"/>
+      <c r="J107" s="56"/>
+      <c r="K107" s="56"/>
+      <c r="L107" s="56"/>
+      <c r="M107" s="56"/>
+      <c r="N107" s="56"/>
+      <c r="O107" s="56"/>
+      <c r="P107" s="56"/>
+      <c r="Q107" s="56"/>
+      <c r="R107" s="56"/>
+      <c r="S107" s="56"/>
+      <c r="T107" s="56"/>
+      <c r="U107" s="56"/>
+      <c r="V107" s="56"/>
       <c r="W107" s="21"/>
       <c r="X107" s="21"/>
       <c r="Y107" s="21"/>
       <c r="Z107" s="21"/>
       <c r="AA107" s="21"/>
     </row>
-    <row r="108" spans="1:32" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:32" s="12" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A108" s="22"/>
       <c r="L108" s="14"/>
       <c r="M108" s="15"/>
@@ -9379,7 +9374,7 @@
       <c r="P108" s="15"/>
       <c r="Q108" s="15"/>
     </row>
-    <row r="109" spans="1:32" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:32" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A109" s="22"/>
       <c r="L109" s="14"/>
       <c r="M109" s="16"/>
@@ -9388,7 +9383,7 @@
       <c r="P109" s="16"/>
       <c r="Q109" s="16"/>
     </row>
-    <row r="110" spans="1:32" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:32" s="12" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A110" s="22"/>
       <c r="L110" s="14"/>
       <c r="M110" s="17"/>
@@ -9397,7 +9392,7 @@
       <c r="P110" s="17"/>
       <c r="Q110" s="17"/>
     </row>
-    <row r="111" spans="1:32" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:32" s="12" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A111" s="22"/>
       <c r="L111" s="14"/>
       <c r="M111" s="18"/>
@@ -9406,7 +9401,7 @@
       <c r="P111" s="18"/>
       <c r="Q111" s="18"/>
     </row>
-    <row r="112" spans="1:32" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:32" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A112" s="22"/>
       <c r="L112" s="18"/>
       <c r="M112" s="16"/>
@@ -9415,7 +9410,7 @@
       <c r="P112" s="16"/>
       <c r="Q112" s="16"/>
     </row>
-    <row r="113" spans="1:27" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A113" s="22"/>
       <c r="L113" s="16"/>
       <c r="M113" s="17"/>
@@ -9424,7 +9419,7 @@
       <c r="P113" s="17"/>
       <c r="Q113" s="17"/>
     </row>
-    <row r="114" spans="1:27" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27" s="12" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A114" s="22"/>
       <c r="L114" s="17"/>
       <c r="M114" s="15"/>
@@ -9490,6 +9485,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="A100:V100"/>
+    <mergeCell ref="A88:V88"/>
+    <mergeCell ref="A89:V89"/>
+    <mergeCell ref="A95:V95"/>
+    <mergeCell ref="A96:V96"/>
+    <mergeCell ref="A97:V97"/>
+    <mergeCell ref="A98:V98"/>
+    <mergeCell ref="A99:V99"/>
+    <mergeCell ref="A94:V94"/>
+    <mergeCell ref="A93:V93"/>
+    <mergeCell ref="A107:V107"/>
+    <mergeCell ref="A101:V101"/>
+    <mergeCell ref="A102:V102"/>
+    <mergeCell ref="A103:V103"/>
+    <mergeCell ref="A104:V104"/>
+    <mergeCell ref="A105:V105"/>
+    <mergeCell ref="A106:V106"/>
+    <mergeCell ref="A87:V87"/>
+    <mergeCell ref="A92:V92"/>
+    <mergeCell ref="A90:V90"/>
+    <mergeCell ref="A91:V91"/>
+    <mergeCell ref="A81:V81"/>
+    <mergeCell ref="A82:V82"/>
+    <mergeCell ref="A83:V83"/>
+    <mergeCell ref="A84:V84"/>
+    <mergeCell ref="A85:V85"/>
+    <mergeCell ref="A86:V86"/>
+    <mergeCell ref="A70:V70"/>
+    <mergeCell ref="A71:V71"/>
+    <mergeCell ref="A72:V72"/>
+    <mergeCell ref="A73:V73"/>
+    <mergeCell ref="A74:V74"/>
+    <mergeCell ref="A75:V75"/>
+    <mergeCell ref="A76:V76"/>
+    <mergeCell ref="A77:V77"/>
+    <mergeCell ref="A79:V79"/>
+    <mergeCell ref="A80:V80"/>
+    <mergeCell ref="A53:V53"/>
+    <mergeCell ref="A54:V54"/>
+    <mergeCell ref="A55:V55"/>
+    <mergeCell ref="A68:V68"/>
+    <mergeCell ref="A69:V69"/>
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="A78:V78"/>
     <mergeCell ref="A67:V67"/>
@@ -9506,48 +9543,6 @@
     <mergeCell ref="A66:V66"/>
     <mergeCell ref="A51:V51"/>
     <mergeCell ref="A52:V52"/>
-    <mergeCell ref="A53:V53"/>
-    <mergeCell ref="A54:V54"/>
-    <mergeCell ref="A55:V55"/>
-    <mergeCell ref="A68:V68"/>
-    <mergeCell ref="A69:V69"/>
-    <mergeCell ref="A75:V75"/>
-    <mergeCell ref="A76:V76"/>
-    <mergeCell ref="A77:V77"/>
-    <mergeCell ref="A79:V79"/>
-    <mergeCell ref="A80:V80"/>
-    <mergeCell ref="A70:V70"/>
-    <mergeCell ref="A71:V71"/>
-    <mergeCell ref="A72:V72"/>
-    <mergeCell ref="A73:V73"/>
-    <mergeCell ref="A74:V74"/>
-    <mergeCell ref="A87:V87"/>
-    <mergeCell ref="A92:V92"/>
-    <mergeCell ref="A90:V90"/>
-    <mergeCell ref="A91:V91"/>
-    <mergeCell ref="A81:V81"/>
-    <mergeCell ref="A82:V82"/>
-    <mergeCell ref="A83:V83"/>
-    <mergeCell ref="A84:V84"/>
-    <mergeCell ref="A85:V85"/>
-    <mergeCell ref="A86:V86"/>
-    <mergeCell ref="A107:V107"/>
-    <mergeCell ref="A101:V101"/>
-    <mergeCell ref="A102:V102"/>
-    <mergeCell ref="A103:V103"/>
-    <mergeCell ref="A104:V104"/>
-    <mergeCell ref="A105:V105"/>
-    <mergeCell ref="A106:V106"/>
-    <mergeCell ref="A100:V100"/>
-    <mergeCell ref="A88:V88"/>
-    <mergeCell ref="A89:V89"/>
-    <mergeCell ref="A95:V95"/>
-    <mergeCell ref="A96:V96"/>
-    <mergeCell ref="A97:V97"/>
-    <mergeCell ref="A98:V98"/>
-    <mergeCell ref="A99:V99"/>
-    <mergeCell ref="A94:V94"/>
-    <mergeCell ref="A93:V93"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="36" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -9555,6 +9550,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002817D3A329724A479313C886C2FB1746" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="62a8723b96c1432a91a35108219c4d81">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e9378d88-8176-4f71-9851-64a93c091a10" xmlns:ns3="b7325b2c-accd-4278-8079-34cb29d0c829" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7a07d12f4bfae53195ebfca05177dd56" ns2:_="" ns3:_="">
     <xsd:import namespace="e9378d88-8176-4f71-9851-64a93c091a10"/>
@@ -9719,15 +9723,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -9735,13 +9730,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAB7368B-8334-4D97-AEAA-4CB5F70C5871}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8FA97FB-5F9A-42E0-ADE1-2DA45E6CFC0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8FA97FB-5F9A-42E0-ADE1-2DA45E6CFC0F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAB7368B-8334-4D97-AEAA-4CB5F70C5871}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e9378d88-8176-4f71-9851-64a93c091a10"/>
+    <ds:schemaRef ds:uri="b7325b2c-accd-4278-8079-34cb29d0c829"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0488A940-34DB-4B69-81A4-C563BA5BF353}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0488A940-34DB-4B69-81A4-C563BA5BF353}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>